--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
   <si>
     <t>Java core</t>
   </si>
@@ -4601,6 +4601,67 @@
   </si>
   <si>
     <t>CRUD (Create, Read, Update, Delete) restful web service. It will allow to maintain a list of TODOs in your web application via HTTP calls.</t>
+  </si>
+  <si>
+    <t>Spring MVC + Restful</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Spring RESTful, you need </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PathVariable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RequestMethod</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4780,7 +4841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4850,6 +4911,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5216,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5934,10 +5998,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -6000,10 +6064,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -6076,10 +6140,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -6166,10 +6230,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -6227,7 +6291,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6237,7 +6301,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -7063,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7127,12 +7191,16 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2"/>
+    <row r="10" spans="2:3" ht="31.5">
+      <c r="B10" s="32" t="s">
+        <v>260</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:3" ht="30">
+      <c r="B11" s="37" t="s">
+        <v>261</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:3">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Java Core" sheetId="2" r:id="rId2"/>
     <sheet name="SOAP WS" sheetId="3" r:id="rId3"/>
     <sheet name="RESTful WS" sheetId="4" r:id="rId4"/>
+    <sheet name="Spring framework" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="306">
   <si>
     <t>Java core</t>
   </si>
@@ -4663,12 +4664,1285 @@
       <t>RequestMethod</t>
     </r>
   </si>
+  <si>
+    <t>What's Spring MVC?</t>
+  </si>
+  <si>
+    <t>The Spring web MVC framework provides:
+ - Model-view-controller architecture
+ - Ready components that can be used to develop flexible and loosely coupled web applications. The MVC pattern results in separating the different aspects of the application (input logic, business logic, and UI logic), while providing a loose coupling between these elements.</t>
+  </si>
+  <si>
+    <t>What are the Spring MVC components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's Spring framework? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Spring is an open source development framework for enterprise Java. 
+ - The core features of the Spring Framework can be used in developing any Java application, but there are extensions for building web applications on top of the Java EE platform. 
+ - Spring framework targets to make J2EE development easier to use and promote good programming practice by enabling a POJO-based programming model.</t>
+  </si>
+  <si>
+    <t>Inversion of control in Spring?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Inversion of Control (IoC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a general concept, and it can be expressed in many different ways and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dependency Injection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is merely one concrete example of Inversion of Control.
+ - This concept says that you do not create your objects but describe how they should be created. 
+ - You don't directly connect your components and services together in code but describe which services are needed by which components in a configuration file. 
+ - A container (the IOC container) is then responsible for hooking it all up.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you use Spring for?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lightweight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring is lightweight when it comes to size and transparency. The basic version of spring framework is around 2MB. Spring framework is lightweight because of its POJO implementation. The Spring Framework doesn't force the programmer to inherit any class or implement any interface. That is why it is said non-invasive.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inversion of control (IOC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Loose coupling is achieved in spring using the technique Inversion of Control. The objects give their dependencies instead of creating or looking for dependent objects.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aspect oriented (AOP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring supports Aspect oriented programming and enables cohesive development by separating application business logic from system services.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring contains and manages the life cycle and configuration of application objects.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVC Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring's web framework is a well-designed web MVC framework, which provides a great alternative to web frameworks such as Struts or other over engineered or less popular web frameworks.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transaction Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring provides a consistent transaction management interface that can scale down to a local transaction (using a single database, for example) and scale up to global transactions (using JTA, for example).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception Handling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring provides a convenient API to translate technology-specific exceptions (thrown by JDBC, Hibernate, or JDO, for example) into consistent, unchecked exceptions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Annotation in Spring? What is the meaning of annotation @Controller?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Starting from Spring 2.5 it became possible to configure the dependency injection using annotations. 
+ - So instead of using XML to describe a bean wiring, you can move the bean configuration into the component class itself by using annotations on the relevant class, method, or field declaration.
++  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Required:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The @Required annotation applies to bean property setter methods.
++  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@Autowired </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">annotation can apply to bean property setter methods, non-setter methods, constructor and properties.
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation along with @Autowired can be used to remove the confusion by specifiying which exact bean will be wired.
+ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSR-250 Annotations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Spring supports JSR-250 based annotations which include @Resource, @PostConstruct and @PreDestroy annotations.
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation indicates that a particular class serves the role of a controller. DispatcherServlet delegates the request to the controllers to execute the functionality specific to it. </t>
+    </r>
+  </si>
+  <si>
+    <t>What is Spring Template, REST template?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Callbacks with Java - Inversion of control </t>
+  </si>
+  <si>
+    <r>
+      <t>The ideia behind it is the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inversion of control (abbreviated IoC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This paradigma describes the way frameworks work. It is also known as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Hollywood principle - Don't call me, we will call you"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is similar to Observer Pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: are the classes that are created by using Template Method Pattern. There are some templates in Spring such as JDBCTemplate, HibernateTemplate, JMSTemplate, RESTTemplate.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESTTemplate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The RestTemplate is the central Spring class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for client-side HTTP access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Conceptually, it is very similar to the JdbcTemplate, JmsTemplate, and the various other templates found in the Spring Framework and other portfolio projects. This means, for instance, that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RestTemplate is thread-safe once constructed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and that you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use callbacks to customize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> its operations.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>RestTemplate</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>delete(String, String...)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>getForObject(String, Class, String...)</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>headForHeaders(String, String...)</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>optionsForAllow(String, String...)</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>postForLocation(String, Object, String...)</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>put(String, Object, String...)</t>
+  </si>
+  <si>
+    <r>
+      <t>String result = restTemplate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getForObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("http://example.com/hotels/{hotel}/bookings/{booking}", String.class, "42", "21");</t>
+    </r>
+  </si>
+  <si>
+    <t>What kind of design pattern used in Spring?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring Framework is using a lot of design patterns, some of the common ones are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Singleton Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Creating beans with default scope.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Factory Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Bean Factory classes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prototype Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Bean scopes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adapter Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring Web and Spring MVC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proxy Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring Aspect Oriented Programming support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template Method Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: JdbcTemplate, HibernateTemplate, RESTTemplate, JMSTemplate etc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Front Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring MVC DispatcherServlet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Access Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Spring DAO support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependency Injection and Aspect Oriented Programming</t>
+    </r>
+  </si>
+  <si>
+    <t>What is used for parsing XML and JSON in Spring?</t>
+  </si>
+  <si>
+    <r>
+      <t>@ResponseBody
+@RequestMapping(value = "/getstudent/{id}/{name}",
+        method = RequestMethod.GET,
+        produces={"application/json", "application/xml"})</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+XML :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+    - Object annotated with JAXB
+    - JAXB library existed in classpath
+    - “mvc:annotation-driven” is enabled
+    - Return method annotated with @ResponseBody
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Jackson library is existed in the project classpath
+    - The mvc:annotation-driven is enabled
+    - Return method annotated with @ResponseBody</t>
+    </r>
+  </si>
+  <si>
+    <t>What is JAXB?</t>
+  </si>
+  <si>
+    <t>JAXB allows Java developers to access and process XML data without having to know XML or XML processing. For example, there's no need to create or use a SAX parser or write callback methods.
+Working with XML is difficult. One needs a way to take an XML file - which is basically a text file - and convert it into some sort of data structure, which your program can then manipulate.
+JAXB will take an XML Schema that you write and create a set of classes that correspond to that schema. The JAXB utilities will create the hierarchy of data structures for manipulating that XML.
+JAXB can then be used to read an XML file, and then create instances of the generated classes - laden with the data from your XML. JAXB also does the reverse: takes java classes, and generates the corresponding XML.</t>
+  </si>
+  <si>
+    <t>How many modules in Spring?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring comprises of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seven modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They are..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The core container: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The core container provides the essential functionality of the Spring framework. A primary component of the core container is the BeanFactory, an implementation of the Factory pattern. The BeanFactory applies the Inversion of Control (IOC) pattern to separate an application's configuration and dependency specification from the actual application code.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring context: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Spring context is a configuration file that provides context information to the Spring framework. The Spring context includes enterprise services such as JNDI, EJB, e-mail, internalization, validation, and scheduling functionality.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring AOP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Spring AOP module integrates aspect-oriented programming functionality directly into the Spring framework, through its configuration management feature. As a result you can easily AOP-enable any object managed by the Spring framework. The Spring AOP module provides transaction management services for objects in any Spring-based application. With Spring AOP you can incorporate declarative transaction management into your applications without relying on EJB components.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring DAO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Spring JDBC DAO abstraction layer offers a meaningful exception hierarchy for managing the exception handling and error messages thrown by different database vendors. The exception hierarchy simplifies error handling and greatly reduces the amount of exception code you need to write, such as opening and closing connections. Spring DAO's JDBC-oriented exceptions comply to its generic DAO exception hierarchy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring ORM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Spring framework plugs into several ORM frameworks to provide its Object Relational tool, including JDO, Hibernate, and iBatis SQL Maps. All of these comply to Spring's generic transaction and DAO exception hierarchies.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Web module:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Web context module builds on top of the application context module, providing contexts for Web-based applications. As a result, the Spring framework supports integration with Jakarta Struts. The Web module also eases the tasks of handling multi-part requests and binding request parameters to domain objects.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring MVC framework:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Model-View-Controller (MVC) framework is a full-featured MVC implementation for building Web applications. The MVC framework is highly configurable via strategy interfaces and accommodates numerous view technologies including JSP, Velocity, Tiles, iText, and POI.</t>
+    </r>
+  </si>
+  <si>
+    <t>How many spring modules have you worked with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The core container, Spring context(ApplicationContext)
+ - Spring DAO to integrate with Hibernate
+ - Spring Web module, Spring MVC framework for developping RESTFul web services</t>
+  </si>
+  <si>
+    <t>How does Spring MVC  find the right controller?</t>
+  </si>
+  <si>
+    <t>Firstly, We have to enable component-scann. After that, basing on the url in @RequestMapping("/movie") to determine the right controller</t>
+  </si>
+  <si>
+    <t>What bean scopes does Spring support?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Spring Framework supports following </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>five scopes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, three of which are available only if you use a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>web-aware ApplicationContext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>singleton:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes the bean definition to a single instance per Spring IoC container --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototype:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a single bean definition to have any number of object instances.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a bean definition to an HTTP request. Only valid in the context of a web-aware Spring ApplicationContext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a bean definition to an HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global-session</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4767,6 +6041,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4788,7 +6112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4837,11 +6161,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4935,6 +6274,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4975,6 +6332,55 @@
         <a:xfrm>
           <a:off x="6115049" y="31537275"/>
           <a:ext cx="4791075" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4410075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="26282" t="9375" r="24199"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2276475" y="9610725"/>
+          <a:ext cx="7267575" cy="4733925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5281,7 +6687,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7125,10 +8531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C35"/>
+  <dimension ref="B3:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7197,10 +8603,8 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:3" ht="30">
-      <c r="B11" s="37" t="s">
-        <v>261</v>
-      </c>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:3">
@@ -7299,7 +8703,307 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" ht="90">
+      <c r="B37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="37"/>
+    </row>
+    <row r="39" spans="2:3" ht="30">
+      <c r="B39" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="37"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="37"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="37"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="37"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="37"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="75">
+      <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="120">
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="330">
+      <c r="B5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="240">
+      <c r="B6" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="135">
+      <c r="B7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="37"/>
+      <c r="C15" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="75">
+      <c r="B16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="165">
+      <c r="B17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="195">
+      <c r="B18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="210">
+      <c r="B19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="409.5" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="45">
+      <c r="B21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="30">
+      <c r="B22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="225">
+      <c r="B23" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="329">
   <si>
     <t>Java core</t>
   </si>
@@ -5937,12 +5937,826 @@
       <t>: This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.</t>
     </r>
   </si>
+  <si>
+    <t>Difference between loading context via DispatcherServlet and ContextLoaderListener</t>
+  </si>
+  <si>
+    <t>In Spring Web Applications, there are two types of container, each of which is configured and initialized differently. One is the “Application Context” and the other is the “Web Application Context”.  Lets first talk about the “Application Context”.</t>
+  </si>
+  <si>
+    <t>Application Context is the container initialized by a ContextLoaderListener or ContextLoaderServlet defined in the web.xml and the configuration would look something like this:</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listener-class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.springframework.web.context.ContextLoaderListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listener-class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>context-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contextConfigLocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>classpath:*-context.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>context-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>In the above configuration, I am asking spring to load all files from the classpath that match *-context.xml and create an Application Context from it. This context might, for instance, contain components such as middle-tier transactional services, data access objects, or other objects that you might want to use (and re-use) across the application. There will be one application context per application.</t>
+  </si>
+  <si>
+    <r>
+      <t>The other context is the “WebApplicationContext” which is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>child </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>context of the application context. Each DispatcherServlet defined in a Spring web application will have an associated WebApplicationContext. The initialization of the WebApplicationContext happens like this:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>platform-services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet-class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.springframework.web.servlet.DispatcherServlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet-class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>init-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contextConfigLocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>classpath:platform-services-servlet.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>param-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>init-param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load-on-startup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load-on-startup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You provide the name of the spring configuration file as a servlet initialization parameter. What is important to remember here is that the name of the XML must be of the form &lt;servlet name&gt;-servlet. xml. In our example, the name of the servlet is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>platform-services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t> therefore the name of our XML must be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>platform-services-servlet.xml.</t>
+    </r>
+  </si>
+  <si>
+    <t>Whatever beans are available in the ApplicationContext can be referred to from each WebApplicationContext. It is a best practice to keep a clear separation between middle-tier services such as business logic components and data access classes  (that are typically defined in the ApplicationContext) and web- related components such as controllers and view resolvers  (that are defined in the WebApplicationContext per Dispatcher Servlet).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6091,8 +6905,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF008A00"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6111,8 +6966,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F2F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6176,11 +7037,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6253,6 +7181,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6274,23 +7220,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6298,6 +7252,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6474,6 +7433,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6508,6 +7468,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6683,11 +7644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7149,10 +8110,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E145"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
@@ -7404,10 +8365,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -7470,10 +8431,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -7546,10 +8507,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="44"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -7636,10 +8597,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -7697,7 +8658,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="47" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7707,7 +8668,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="47"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -8434,11 +9395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8530,11 +9491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8750,11 +9711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8765,10 +9726,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="38" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8776,27 +9737,27 @@
       <c r="B3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="39" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="120">
+    <row r="4" spans="2:3" ht="105">
       <c r="B4" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="40" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="330">
+    <row r="5" spans="2:3" ht="300">
       <c r="B5" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="40" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="240">
+    <row r="6" spans="2:3" ht="195">
       <c r="B6" s="37" t="s">
         <v>271</v>
       </c>
@@ -8804,7 +9765,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="135">
+    <row r="7" spans="2:3" ht="105">
       <c r="B7" s="2" t="s">
         <v>273</v>
       </c>
@@ -8874,7 +9835,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="75">
+    <row r="16" spans="2:3" ht="60">
       <c r="B16" s="2" t="s">
         <v>274</v>
       </c>
@@ -8886,7 +9847,7 @@
       <c r="B17" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="41" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8894,11 +9855,11 @@
       <c r="B18" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="210">
+    <row r="19" spans="2:3" ht="165">
       <c r="B19" s="2" t="s">
         <v>296</v>
       </c>
@@ -8910,7 +9871,7 @@
       <c r="B20" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="40" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8931,78 +9892,163 @@
       </c>
     </row>
     <row r="23" spans="2:3" ht="225">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:3" ht="26.25">
+      <c r="B24" s="51" t="s">
+        <v>306</v>
+      </c>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="25" spans="2:3" ht="33" customHeight="1">
+      <c r="B25" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="2"/>
+      <c r="B26" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="52"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B28" s="55" t="s">
+        <v>309</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2"/>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B29" s="54" t="s">
+        <v>310</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="2"/>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B30" s="55" t="s">
+        <v>311</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B31" s="53"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B32" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B33" s="54" t="s">
+        <v>313</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="2"/>
+    <row r="34" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B34" s="54" t="s">
+        <v>314</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="2"/>
+      <c r="B35" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="59"/>
+    </row>
+    <row r="36" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B36" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B37" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="52"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B38" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="57"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B39" s="54" t="s">
+        <v>319</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
+    <row r="40" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B40" s="54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B41" s="54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B42" s="54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B43" s="54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B44" s="54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B45" s="54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="36" customHeight="1">
+      <c r="B47" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B48" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="52"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4"/>
@@ -6755,7 +6755,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -7199,6 +7199,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7220,31 +7243,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7433,7 +7433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7468,7 +7467,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7644,7 +7642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8110,7 +8108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E145"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
@@ -8365,10 +8363,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -8431,10 +8429,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -8507,10 +8505,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="50"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -8597,10 +8595,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -8658,7 +8656,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="56" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8668,7 +8666,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="47"/>
+      <c r="E58" s="56"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -9395,11 +9393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9491,7 +9489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -9711,11 +9709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9749,7 +9747,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="300">
+    <row r="5" spans="2:3" ht="285">
       <c r="B5" s="4" t="s">
         <v>269</v>
       </c>
@@ -9900,154 +9898,154 @@
       </c>
     </row>
     <row r="24" spans="2:3" ht="26.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="44" t="s">
         <v>306</v>
       </c>
       <c r="C24" s="37"/>
     </row>
     <row r="25" spans="2:3" ht="33" customHeight="1">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="60"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="46" t="s">
         <v>310</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B31" s="53"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="47" t="s">
         <v>312</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="46" t="s">
         <v>313</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="46" t="s">
         <v>314</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="51"/>
     </row>
     <row r="36" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="60"/>
     </row>
     <row r="37" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="60"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="49"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="46" t="s">
         <v>319</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="46" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="46" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="46" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="46" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="46" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="50" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="36" customHeight="1">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="60"/>
     </row>
     <row r="48" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="405">
   <si>
     <t>Java core</t>
   </si>
@@ -6752,18 +6752,6 @@
     <t>Whatever beans are available in the ApplicationContext can be referred to from each WebApplicationContext. It is a best practice to keep a clear separation between middle-tier services such as business logic components and data access classes  (that are typically defined in the ApplicationContext) and web- related components such as controllers and view resolvers  (that are defined in the WebApplicationContext per Dispatcher Servlet).</t>
   </si>
   <si>
-    <t>@RequestMapping annotation is used to map the request URI to the handler method. We can also specify the HTTP method that should be used by client application to invoke the rest method.</t>
-  </si>
-  <si>
-    <t>@ResponseBody annotation is used to map the response object in the response body. Once the response object is returned by the handler method, MappingJackson2HttpMessageConverter kicks in and convert it to JSON response.</t>
-  </si>
-  <si>
-    <t>@PathVariable annotation is the easy way to extract the data from the rest URI and map it to the method argument.</t>
-  </si>
-  <si>
-    <t>@RequestBody annotation is used to map the request body JSON data into the Employee object, again this is done by the MappingJackson2HttpMessageConverter mapping.</t>
-  </si>
-  <si>
     <t>What are differences between GET and POST method?</t>
   </si>
   <si>
@@ -6849,13 +6837,682 @@
   </si>
   <si>
     <t>Data is not displayed in the URL</t>
+  </si>
+  <si>
+    <t>Content Negotiation using Spring MVC</t>
+  </si>
+  <si>
+    <t>There are two ways to generate output using Spring MVC:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can use the RESTful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>@ResponseBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> approach and HTTP message converters, typically to return data-formats like JSON or XML. Programmatic clients, mobile apps and AJAX enabled browsers are the usual clients.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alternatively you may use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view resolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Although views are perfectly capable of generating JSON and XML if you wish (more on that in my next post), views are normally used to generate presentation formats like HTML for a traditional web-application.</t>
+    </r>
+  </si>
+  <si>
+    <t>Actually there is a third possibility - some applications require both, and Spring MVC supports such combinations easily. We will come back to that right at the end.</t>
+  </si>
+  <si>
+    <t>There are three situations where we need to know what type of data-format to send in the HTTP response:</t>
+  </si>
+  <si>
+    <r>
+      <t>HttpMessageConverters:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Determine the right converter to use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Request Mappings:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Map an incoming HTTP request to different methods that return different formats.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>View Resolution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pick the right view to use.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enabling Content Negotiation in Spring MVC??</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring supports a couple of conventions for selecting the format required: URL suffixes and/or a URL parameter. These work alongside the use of Accept headers. As a result, the content-type can be requested in any of three ways. By default they are checked in this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    + Add a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path extension (suffix) in the URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. So, if the incoming URL is something like http://myserver/myapp/accounts/list</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then HTML is required. For a spreadsheet the URL should be http://myserver/myapp/accounts/list.xls. The suffix to media-type mapping is automatically defined via the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaBeans Activation Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or JAF (so activation.jar must be on the class path).
+    + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A URL parameter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>like this: http://myserver/myapp/accounts/list?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format=xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The name of the parameter is format by default, but this may be changed. Using a parameter is disabled by default, but when enabled, it is checked second.
+    + Finally the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accept HTTP header property is checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This is how HTTP is actually defined to work, but, as previously mentioned, it can be problematic to use.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>@Controller</t>
+  </si>
+  <si>
+    <t>Use the @Controller annotation to annotate the class that will be the controller in MVC and handle the HTTP request.</t>
+  </si>
+  <si>
+    <t>@RequestMapping</t>
+  </si>
+  <si>
+    <t>@PathVariable</t>
+  </si>
+  <si>
+    <t>A path variable in the URI could be injected as a parameter using the @PathVariable annotation.
+For example:
+@RequestMapping(method=RequestMethod.GET, value="/emp/{id}")
+public ModelAndView getEmployee(@PathVariable String id) { … }</t>
+  </si>
+  <si>
+    <t>is used to map the response object in the response body. Once the response object is returned by the handler method, MappingJackson2HttpMessageConverter kicks in and convert it to JSON response.</t>
+  </si>
+  <si>
+    <t>@ResponseBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RequestBody </t>
+  </si>
+  <si>
+    <t>Is used to map the request body JSON data into the Employee object, again this is done by the MappingJackson2HttpMessageConverter mapping.</t>
+  </si>
+  <si>
+    <r>
+      <t>Use the @RequestMapping annotation to annotate the function that should handle certain HTTP methods, URIs, or HTTP headers. This annotation is the key to the Spring REST support. You change the method parameter to handle other HTTP methods.
+For example:
+@RequestMapping(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=RequestMethod.GET,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="/emps", 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Accept=application/xml, application/json",  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>produces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MediaType.APPLICATION_XML_VALUE,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MediaType.APPLICATION_XML_VALUE)</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple representation support</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Representing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">same resource </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>different MIME types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an important aspect of RESTful web services. Generally, you would use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">different "accept" HTTP header </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to fetch the resource with different representation. You can also use a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">different URI, or a URI with different request parameters.
+ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ContentNegotiatingViewResolver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can pick a different view resolver to handle the same URI (with the difference of the accept header)
+ + There's also another way to produce multiple representations—by combining the HttpMessageConverter and c@ResponseBody annotation. With this method you don't need to use the View technologies.</t>
+    </r>
+  </si>
+  <si>
+    <t>HttpMessageConverter</t>
+  </si>
+  <si>
+    <t>How can Spring serialize/de-serialize the objects to raw texts? This is handled by HttpMessageConverter</t>
+  </si>
+  <si>
+    <t>With...</t>
+  </si>
+  <si>
+    <t>You can...</t>
+  </si>
+  <si>
+    <t>StringHttpMessageConverter</t>
+  </si>
+  <si>
+    <t>Read/write a string from request and response. By default, it supports the media type text/* and writes with a Content-Type of text/plain.</t>
+  </si>
+  <si>
+    <t>FormHttpMessageConverter</t>
+  </si>
+  <si>
+    <t>Read/write form data from request and response. By default, it reads the media type application/x-www-form-urlencoded and writes data into MultiValueMap&lt;String,String&gt;.</t>
+  </si>
+  <si>
+    <t>MarshallingHttpMessageConverter</t>
+  </si>
+  <si>
+    <t>Read/write XML data using Spring's marshaller/un-marshaller. It converts data of media type application/xml.</t>
+  </si>
+  <si>
+    <t>MappingJacksonHttpMessageConverter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read/write JSON data using Jackson's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ObjectMapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It converts data of media type application/json.</t>
+    </r>
+  </si>
+  <si>
+    <t>AtomFeedHttpMessageConverter</t>
+  </si>
+  <si>
+    <t>Read/write ATOM feed using ROME's Feed API. It converts data of media type application/atom+xml.</t>
+  </si>
+  <si>
+    <t>RssChannelHttpMessageConverter</t>
+  </si>
+  <si>
+    <t>Read/write RSS feed using ROME's feed API. It converts data of media type application/rss+xml.</t>
+  </si>
+  <si>
+    <t>First, you must configure the HttpMessageConverter. To produce multiple representations, customize several HttpMessageConverter instances to convert the object to different media types.</t>
+  </si>
+  <si>
+    <t>Listing 1. Configure HttpMessageConverter in rest-servlet.xml
+&lt;bean class="org.springframework.web.servlet.mvc.annotation
+.AnnotationMethodHandlerAdapter"&gt;
+   &lt;property name="messageConverters"&gt;
+       &lt;list&gt;
+           &lt;ref bean="jsonConverter" /&gt;
+   &lt;ref bean="marshallingConverter" /&gt;
+   &lt;ref bean="atomConverter" /&gt;
+       &lt;/list&gt;
+   &lt;/property&gt;
+&lt;/bean&gt;
+&lt;bean id="jsonConverter" 
+            class="org.springframework.http.converter.json
+.MappingJacksonHttpMessageConverter"&gt;
+   &lt;property name="supportedMediaTypes" value="application/json" /&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>The next step is to write a method to handle the request that asks for JSON representation. Listing 2 shows the details.</t>
+  </si>
+  <si>
+    <t>Listing 2. Handle JSON requests defined in EmployeeController
+@RequestMapping(method=RequestMethod.GET, value="/emp/{id}", 
+  headers="Accept=application/json")
+public @ResponseBody Employee getEmp(@PathVariable String id) {
+Employee e = employeeDS.get(Long.parseLong(id));
+return e;
+}
+@RequestMapping(method=RequestMethod.GET, value="/emps", 
+  headers="Accept=application/json")
+public @ResponseBody EmployeeListinggetAllEmp() {
+List&lt;Employee&gt; employees = employeeDS.getAll();
+EmployeeListinglist = new EmployeeList(employees);
+return list;
+}</t>
+  </si>
+  <si>
+    <t>Implement POST, PUT, and DELETE</t>
+  </si>
+  <si>
+    <t>@RequestMapping(method=RequestMethod.POST, value="/emp")
+public @ResponseBody Employee addEmp(@RequestBody Employee e) {
+employeeDS.add(e);
+return e;
+}
+@RequestMapping(method=RequestMethod.PUT, value="/emp/{id}")
+public @ResponseBody Employee updateEmp(
+ @RequestBody Employee e, @PathVariable String id) {
+employeeDS.update(e);
+return e;
+}
+@RequestMapping(method=RequestMethod.DELETE, value="/emp/{id}")
+public @ResponseBody void removeEmp(@PathVariable String id) {
+employeeDS.remove(Long.parseLong(id));
+}</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7045,6 +7702,25 @@
       <color rgb="FF333333"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -7207,7 +7883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7324,6 +8000,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7348,14 +8030,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7757,7 +8469,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8474,10 +9186,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -8540,10 +9252,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="58"/>
+      <c r="E34" s="60"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -8616,10 +9328,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="60"/>
+      <c r="E42" s="62"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -8706,10 +9418,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="58"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -8767,7 +9479,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="59" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8777,7 +9489,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="57"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -9601,10 +10313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C59"/>
+  <dimension ref="A3:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9792,182 +10504,379 @@
       </c>
       <c r="C38" s="37"/>
     </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="B39" s="37" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="59"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="59"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="64"/>
+    </row>
+    <row r="54" spans="1:3" ht="31.5">
+      <c r="B54" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="65"/>
+    </row>
+    <row r="57" spans="1:3" ht="32.25" customHeight="1">
+      <c r="B57" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="66"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="B58" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58" s="66"/>
+    </row>
+    <row r="59" spans="1:3" ht="19.5" customHeight="1">
+      <c r="B59" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="66"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="30">
+      <c r="B63" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" ht="225">
+      <c r="B65" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30">
+      <c r="B66" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C39" s="37"/>
-    </row>
-    <row r="40" spans="1:3" ht="36.75" customHeight="1">
-      <c r="B40" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="C40" s="63"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="53"/>
-    </row>
-    <row r="42" spans="1:3" ht="35.25" customHeight="1">
-      <c r="B42" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="63"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="53"/>
-    </row>
-    <row r="44" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B44" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C44" s="63"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" ht="20.25" customHeight="1">
-      <c r="B46" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="C46" s="63"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="64"/>
-      <c r="B48" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45">
-      <c r="A49" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30">
-      <c r="A52" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="60">
-      <c r="A54" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="60">
-      <c r="A55" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="57"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="57"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>361</v>
+      <c r="C66" s="37"/>
+    </row>
+    <row r="67" spans="2:3" ht="30.75">
+      <c r="B67" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="137.25" customHeight="1">
+      <c r="B68" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="105.75">
+      <c r="B69" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="53.25" customHeight="1">
+      <c r="B70" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B71" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" s="70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="135">
+      <c r="B72" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="30.75">
+      <c r="B73" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="30">
+      <c r="B75" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="33.75" customHeight="1">
+      <c r="B76" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="30">
+      <c r="B77" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30.75">
+      <c r="B78" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="30">
+      <c r="B79" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="77" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="270">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="240">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="255">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="195">
+      <c r="B86" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
+  <mergeCells count="5">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="C49:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9979,8 +10888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10006,7 +10915,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="105">
+    <row r="4" spans="2:3" ht="111" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>267</v>
       </c>
@@ -10171,16 +11080,16 @@
       <c r="C24" s="37"/>
     </row>
     <row r="25" spans="2:3" ht="33" customHeight="1">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="63"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="63"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" thickBot="1">
       <c r="B27" s="48" t="s">
@@ -10235,16 +11144,16 @@
       <c r="C35" s="51"/>
     </row>
     <row r="36" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="63"/>
     </row>
     <row r="37" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="63"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1">
       <c r="B38" s="52" t="s">
@@ -10294,16 +11203,16 @@
       </c>
     </row>
     <row r="47" spans="2:3" ht="36" customHeight="1">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="61"/>
+      <c r="C47" s="63"/>
     </row>
     <row r="48" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="407">
   <si>
     <t>Java core</t>
   </si>
@@ -4687,53 +4687,6 @@
     <t>Inversion of control in Spring?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Inversion of Control (IoC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a general concept, and it can be expressed in many different ways and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dependency Injection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is merely one concrete example of Inversion of Control.
- - This concept says that you do not create your objects but describe how they should be created. 
- - You don't directly connect your components and services together in code but describe which services are needed by which components in a configuration file. 
- - A container (the IOC container) is then responsible for hooking it all up.</t>
-    </r>
-  </si>
-  <si>
     <t>What do you use Spring for?</t>
   </si>
   <si>
@@ -4893,123 +4846,6 @@
   </si>
   <si>
     <t>Annotation in Spring? What is the meaning of annotation @Controller?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Starting from Spring 2.5 it became possible to configure the dependency injection using annotations. 
- - So instead of using XML to describe a bean wiring, you can move the bean configuration into the component class itself by using annotations on the relevant class, method, or field declaration.
-+  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Required:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The @Required annotation applies to bean property setter methods.
-+  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@Autowired </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">annotation can apply to bean property setter methods, non-setter methods, constructor and properties.
-+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Qualifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation along with @Autowired can be used to remove the confusion by specifiying which exact bean will be wired.
- + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JSR-250 Annotations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Spring supports JSR-250 based annotations which include @Resource, @PostConstruct and @PreDestroy annotations.
-+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Controller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation indicates that a particular class serves the role of a controller. DispatcherServlet delegates the request to the controllers to execute the functionality specific to it. </t>
-    </r>
   </si>
   <si>
     <t>What is Spring Template, REST template?</t>
@@ -7506,6 +7342,306 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Starting from Spring 2.5 it became possible to configure the dependency injection using annotations. 
+ - So instead of using XML to describe a bean wiring, you can move the bean configuration into the component class itself by using annotations on the relevant class, method, or field declaration.
++  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Required:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The @Required annotation applies to bean property setter methods.
++  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@Autowired </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">annotation can apply to bean property setter methods, constructor and properties.
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation along with @Autowired can be used to remove the confusion by specifiying which exact bean will be wired.
+ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSR-250 Annotations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Spring supports JSR-250 based annotations which include @Resource, @PostConstruct and @PreDestroy annotations.
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation indicates that a particular class serves the role of a controller. DispatcherServlet delegates the request to the controllers to execute the functionality specific to it. </t>
+    </r>
+  </si>
+  <si>
+    <t>Components and Services</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A component is a small unit of reusable code. It should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and expose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>just one service, and do it well</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In practical terms, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component is a class that implements a service (interface)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The interface is the contract of the service, which creates an abstraction layer so you can replace the service implementation without effort."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Inversion of Control (IoC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a general concept, and it can be expressed in many different ways and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dependency Injection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is merely one concrete example of Inversion of Control.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inversion of Control (IoC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means that objects do not create other objects on which they rely to do their work. Instead, they get the objects that they need from an outside source (for example, an xml configuration file).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependency Injection (DI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means that this is done without the object intervention, usually by a framework component that passes constructor parameters and set properties.
+ - This concept says that you do not create your objects but describe how they should be created. 
+ - You don't directly connect your components and services together in code but describe which services are needed by which components in a configuration file. 
+ - A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (the IOC container) is then responsible for hooking it all up.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7883,7 +8019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8006,36 +8142,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -8067,6 +8179,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9186,10 +9325,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="72"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -9252,10 +9391,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -9328,10 +9467,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="62"/>
+      <c r="E42" s="77"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -9418,10 +9557,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="58"/>
+      <c r="E51" s="73"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -9479,7 +9618,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="74" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9489,7 +9628,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="59"/>
+      <c r="E58" s="74"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -10315,8 +10454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10506,198 +10645,198 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="55"/>
       <c r="B41" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="53" t="s">
         <v>330</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="53" t="s">
         <v>333</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="53" t="s">
         <v>336</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>339</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="53" t="s">
         <v>342</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>345</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="B48" s="53" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="B49" s="53" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="59" t="s">
+      <c r="C49" s="74" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="74"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="74"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="74"/>
+      <c r="B51" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="59"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="74"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="B52" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="B53" s="64"/>
+      <c r="B53" s="57"/>
     </row>
     <row r="54" spans="1:3" ht="31.5">
       <c r="B54" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="58"/>
+    </row>
+    <row r="57" spans="1:3" ht="32.25" customHeight="1">
+      <c r="B57" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="78"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="B58" s="78" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="65"/>
-    </row>
-    <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="66" t="s">
+      <c r="C58" s="78"/>
+    </row>
+    <row r="59" spans="1:3" ht="19.5" customHeight="1">
+      <c r="B59" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C57" s="66"/>
-    </row>
-    <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="C58" s="66"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="C59" s="66"/>
+      <c r="C59" s="78"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="59"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="30">
+      <c r="B63" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="68" t="s">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="60" t="s">
         <v>364</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" ht="30">
-      <c r="B63" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="68" t="s">
-        <v>366</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" ht="225">
       <c r="B65" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="30">
@@ -10707,137 +10846,137 @@
       <c r="C66" s="37"/>
     </row>
     <row r="67" spans="2:3" ht="30.75">
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="137.25" customHeight="1">
+      <c r="B68" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C68" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="105.75">
+      <c r="B69" s="63" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="137.25" customHeight="1">
-      <c r="B68" s="72" t="s">
+      <c r="C69" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="C68" s="16" t="s">
+    </row>
+    <row r="70" spans="2:3" ht="53.25" customHeight="1">
+      <c r="B70" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B71" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="135">
+      <c r="B72" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" s="66" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="105.75">
-      <c r="B69" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="53.25" customHeight="1">
-      <c r="B70" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="C70" s="70" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B71" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="C71" s="70" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="135">
-      <c r="B72" s="71" t="s">
+    <row r="73" spans="2:3" ht="30.75">
+      <c r="B73" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C73" s="54" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="30.75">
-      <c r="B73" s="71" t="s">
+    <row r="74" spans="2:3">
+      <c r="B74" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C74" s="67" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="75" t="s">
+    <row r="75" spans="2:3" ht="30">
+      <c r="B75" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C75" s="54" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="30">
-      <c r="B75" s="75" t="s">
+    <row r="76" spans="2:3" ht="33.75" customHeight="1">
+      <c r="B76" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C76" s="54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="33.75" customHeight="1">
-      <c r="B76" s="75" t="s">
+    <row r="77" spans="2:3" ht="30">
+      <c r="B77" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C77" s="54" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="30">
-      <c r="B77" s="75" t="s">
+    <row r="78" spans="2:3" ht="30.75">
+      <c r="B78" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C78" s="54" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="30.75">
-      <c r="B78" s="75" t="s">
+    <row r="79" spans="2:3" ht="30">
+      <c r="B79" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C79" s="54" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="30">
-      <c r="B79" s="75" t="s">
+    <row r="80" spans="2:3">
+      <c r="B80" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C80" s="54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>396</v>
-      </c>
-    </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="76" t="s">
-        <v>403</v>
+      <c r="A82" s="68" t="s">
+        <v>401</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="77" t="s">
-        <v>404</v>
+      <c r="C82" s="69" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="270">
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="78" t="s">
-        <v>397</v>
+      <c r="B83" s="70" t="s">
+        <v>395</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="240">
@@ -10845,10 +10984,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="255">
@@ -10856,18 +10995,18 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="195">
       <c r="B86" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10886,10 +11025,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C48"/>
+  <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10915,313 +11054,321 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="111" customHeight="1">
+    <row r="4" spans="2:3" ht="205.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="62.25" customHeight="1">
+      <c r="B5" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="307.5" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="285">
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="40" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="180">
+      <c r="B7" s="37" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="195">
-      <c r="B6" s="37" t="s">
+      <c r="C7" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="105">
+      <c r="B8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="105">
-      <c r="B7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="C8" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="37"/>
+      <c r="C16" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="60">
+      <c r="B17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="165">
+      <c r="B18" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="2" t="s">
+      <c r="C18" s="41" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="60">
-      <c r="B16" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="165">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:3" ht="195">
+      <c r="B19" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="195">
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="2:3" ht="165">
+      <c r="B20" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C20" s="37" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="165">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="2:3" ht="409.5" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C21" s="40" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="409.5" customHeight="1">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="2:3" ht="45">
+      <c r="B22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C22" s="37" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="2:3" ht="30">
+      <c r="B23" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C23" s="37" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="30">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="2:3" ht="225">
+      <c r="B24" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C24" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="225">
-      <c r="B23" s="43" t="s">
+    <row r="25" spans="2:3" ht="26.25">
+      <c r="B25" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="2:3" ht="33" customHeight="1">
+      <c r="B26" s="79" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="26.25">
-      <c r="B24" s="44" t="s">
+      <c r="C26" s="79"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="2:3" ht="33" customHeight="1">
-      <c r="B25" s="63" t="s">
+      <c r="C27" s="79"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B28" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B29" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="63"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="63" t="s">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B30" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="63"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="49"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B28" s="47" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B31" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B29" s="46" t="s">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B32" s="45"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B33" s="47" t="s">
         <v>310</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B30" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B31" s="45"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B32" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B33" s="46" t="s">
-        <v>313</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
       <c r="B34" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B35" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="37" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B37" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="50" t="s">
+      <c r="C37" s="79"/>
+    </row>
+    <row r="38" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B38" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="51"/>
-    </row>
-    <row r="36" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B36" s="63" t="s">
+      <c r="C38" s="79"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B39" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="63"/>
-    </row>
-    <row r="37" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B37" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="63"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B38" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="49"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B39" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1">
       <c r="B40" s="46" t="s">
-        <v>320</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1">
       <c r="B42" s="46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1">
       <c r="B43" s="46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1">
       <c r="B44" s="46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1">
       <c r="B45" s="46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B46" s="46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="36" customHeight="1">
+      <c r="B48" s="79" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="50" t="s">
+      <c r="C48" s="79"/>
+    </row>
+    <row r="49" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B49" s="79" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" ht="36" customHeight="1">
-      <c r="B47" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="C47" s="63"/>
-    </row>
-    <row r="48" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B48" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="63"/>
+      <c r="C49" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -5558,11 +5558,6 @@
     <t>How many spring modules have you worked with?</t>
   </si>
   <si>
-    <t xml:space="preserve"> - The core container, Spring context(ApplicationContext)
- - Spring DAO to integrate with Hibernate
- - Spring Web module, Spring MVC framework for developping RESTFul web services</t>
-  </si>
-  <si>
     <t>How does Spring MVC  find the right controller?</t>
   </si>
   <si>
@@ -7642,6 +7637,11 @@
       </rPr>
       <t xml:space="preserve"> (the IOC container) is then responsible for hooking it all up.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The core container, Spring context(ApplicationContext)
+ - Spring DAO, ORM to integrate with Hibernate
+ - Spring Web module, Spring MVC framework for developping RESTFul web services</t>
   </si>
 </sst>
 </file>
@@ -8019,7 +8019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8180,6 +8180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -9325,10 +9328,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -9391,10 +9394,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="75"/>
+      <c r="E34" s="76"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -9467,10 +9470,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="77"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -9557,10 +9560,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="73"/>
+      <c r="E51" s="74"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -9618,7 +9621,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E57" s="75" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9628,7 +9631,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="75"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -10645,7 +10648,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -10660,113 +10663,113 @@
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="C42" s="53" t="s">
         <v>329</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="C43" s="53" t="s">
         <v>332</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="C44" s="53" t="s">
         <v>335</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="C45" s="53" t="s">
         <v>338</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>341</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="C47" s="53" t="s">
         <v>344</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="C48" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="53" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="74" t="s">
+      <c r="B49" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="C49" s="75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="75"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="75"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="75"/>
+      <c r="B51" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="C49" s="74" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="74"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="74"/>
-      <c r="B51" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="75"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="C52" s="53" t="s">
         <v>354</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10774,38 +10777,38 @@
     </row>
     <row r="54" spans="1:3" ht="31.5">
       <c r="B54" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="79"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="B58" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="78"/>
-    </row>
-    <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="78" t="s">
+      <c r="C58" s="79"/>
+    </row>
+    <row r="59" spans="1:3" ht="19.5" customHeight="1">
+      <c r="B59" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="78"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="79"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -10815,28 +10818,28 @@
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="30">
       <c r="B63" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" ht="225">
       <c r="B65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="54" t="s">
         <v>365</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="30">
@@ -10847,125 +10850,125 @@
     </row>
     <row r="67" spans="2:3" ht="30.75">
       <c r="B67" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="54" t="s">
         <v>367</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="137.25" customHeight="1">
       <c r="B68" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="105.75">
       <c r="B69" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69" s="54" t="s">
         <v>370</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="53.25" customHeight="1">
       <c r="B70" s="65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="32.25" customHeight="1">
       <c r="B71" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="62" t="s">
         <v>374</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="135">
       <c r="B72" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72" s="66" t="s">
         <v>377</v>
-      </c>
-      <c r="C72" s="66" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="30.75">
       <c r="B73" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="C73" s="54" t="s">
         <v>379</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" s="67" t="s">
         <v>381</v>
-      </c>
-      <c r="C74" s="67" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="30">
       <c r="B75" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="54" t="s">
         <v>383</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="33.75" customHeight="1">
       <c r="B76" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" s="54" t="s">
         <v>385</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="30">
       <c r="B77" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" s="54" t="s">
         <v>387</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="30.75">
       <c r="B78" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="54" t="s">
         <v>389</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="30">
       <c r="B79" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" s="54" t="s">
         <v>391</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="54" t="s">
         <v>393</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="270">
@@ -10973,10 +10976,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="54" t="s">
         <v>395</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="240">
@@ -10984,10 +10987,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="C84" s="54" t="s">
         <v>397</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="255">
@@ -10995,10 +10998,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="195">
@@ -11027,8 +11030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11059,15 +11062,15 @@
         <v>267</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="62.25" customHeight="1">
       <c r="B5" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>404</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="307.5" customHeight="1">
@@ -11083,7 +11086,7 @@
         <v>270</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="105">
@@ -11200,43 +11203,43 @@
       <c r="B22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>299</v>
+      <c r="C22" s="71" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>300</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="225">
       <c r="B24" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>302</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="26.25">
       <c r="B25" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="2:3" ht="33" customHeight="1">
+      <c r="B26" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="79" t="s">
+      <c r="C26" s="80"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="C26" s="79"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="80"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -11246,19 +11249,19 @@
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1">
       <c r="B29" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1">
       <c r="B30" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1">
       <c r="B31" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -11268,98 +11271,98 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1">
       <c r="B33" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
       <c r="B34" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" thickBot="1">
       <c r="B35" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="37" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B37" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="51"/>
-    </row>
-    <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="79" t="s">
+      <c r="C37" s="80"/>
+    </row>
+    <row r="38" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B38" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="C37" s="79"/>
-    </row>
-    <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="80"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="49"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1">
       <c r="B40" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1">
       <c r="B42" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1">
       <c r="B43" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1">
       <c r="B44" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1">
       <c r="B45" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" thickBot="1">
       <c r="B46" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="36" customHeight="1">
+      <c r="B48" s="80" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="79" t="s">
+      <c r="C48" s="80"/>
+    </row>
+    <row r="49" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B49" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="C48" s="79"/>
-    </row>
-    <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="79"/>
+      <c r="C49" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="429">
   <si>
     <t>Java core</t>
   </si>
@@ -1695,9 +1695,6 @@
   </si>
   <si>
     <t>Java Serialization with array or collection</t>
-  </si>
-  <si>
-    <t>Rule: In case of array or collection, all the objects of array or collection must be serializable. If any object is not serialiizable, serialization will be failed.</t>
   </si>
   <si>
     <t>Externalizable in java</t>
@@ -7642,6 +7639,107 @@
     <t xml:space="preserve"> - The core container, Spring context(ApplicationContext)
  - Spring DAO, ORM to integrate with Hibernate
  - Spring Web module, Spring MVC framework for developping RESTFul web services</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rule: In case of array or collection, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all the objects of array or collection must be serializable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If any object is not serialiizable, serialization will be failed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Building a RESTFul Service with Spring MVC</t>
+  </si>
+  <si>
+    <t>Create resource representation class</t>
+  </si>
+  <si>
+    <t>SOAP based web service while still serve a purpose are bloated, hard to consume directly from the client side and are bound by a hard contract. REST services on the other hand have been a go to choice for developing services consumed by web applications due to the lightweight JSON responses and soft contract. What I mean by soft contract is, REST services aren’t bound to a WSDL but still have a contract in which you need to abide by or have a versioning strategy in place.</t>
+  </si>
+  <si>
+    <t>While not overly exciting lots of folks are familiar with insurance, agencies sell policies to policyholders. Lets say we want to get all the possible agencies we can purchase a policy from.</t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Depending on your philosophy of building services, you could return domain object from your business logic layer or create a class that represents the resource a client is requesting. In our case lets create an agency resource object that contains a small subset of an agency object.</t>
+  </si>
+  <si>
+    <t>Defines which service entry points correspond to a given HTTP url, and how parameters are to be read from the HTTP request</t>
+  </si>
+  <si>
+    <t>Presentation layer</t>
+  </si>
+  <si>
+    <t>Service Layer</t>
+  </si>
+  <si>
+    <t>contains any business logic such as validations, defines the scope of business transactions</t>
+  </si>
+  <si>
+    <t>Create resource controller (@Controller)</t>
+  </si>
+  <si>
+    <t>Create the service classes (@Service)</t>
+  </si>
+  <si>
+    <t>The DAO classes map the database to/from in-memory domain objects</t>
+  </si>
+  <si>
+    <t>Persistence Layer</t>
+  </si>
+  <si>
+    <t>Create the persistence class (@Repository). DAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   '- HashMap has a inner class called Entry which stores key-value pairs.
+    - Above Entry object is stored in Entry[ ](Array) called table
+    - An index of table is logically known as bucket and it stores first element of linkedlist
+    - Key object’s hashcode() is used to find bucket of that Entry object.
+    - If two key object ‘s have same hashcode , they will go in same bucket of table array.
+    - Key object ‘s equals() method is used to ensure uniqueness of key object.
+    - Value object  ‘s equals() and hashcode() method is not used at all</t>
+  </si>
+  <si>
+    <t>hashcode() and equals() method in java</t>
+  </si>
+  <si>
+    <t>equals():</t>
+  </si>
+  <si>
+    <t>hashcode():</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - This method is used to simply check the equality between two objects.
+ - By default, it checks where two reference refer to same object or not(==).</t>
+  </si>
+  <si>
+    <t>How HashMap works in java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - This method is used to get unique integer for given object. 
+ - This integer is used to find bucket when storing in hashmap or hashset.
+ - By default, This method returns integer represention of memory address where object is stored.</t>
   </si>
 </sst>
 </file>
@@ -7884,7 +7982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -8015,11 +8113,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8184,6 +8300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8211,6 +8333,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8231,13 +8363,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9074,10 +9206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E145"/>
+  <dimension ref="B2:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9169,7 +9301,7 @@
     </row>
     <row r="10" spans="2:5" ht="31.5">
       <c r="B10" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -9191,100 +9323,100 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="63.75">
+    </row>
+    <row r="19" spans="2:5" ht="74.25" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="78.75">
       <c r="B20" s="2"/>
       <c r="C20" s="32"/>
       <c r="D20" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="93.75">
       <c r="B21" s="2"/>
       <c r="C21" s="32"/>
       <c r="D21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>231</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -9328,10 +9460,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -9394,10 +9526,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="76"/>
+      <c r="E34" s="78"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -9470,10 +9602,10 @@
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="78"/>
+      <c r="E42" s="80"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
@@ -9560,10 +9692,10 @@
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="76"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2"/>
@@ -9621,7 +9753,7 @@
       <c r="D57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="75" t="s">
+      <c r="E57" s="77" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9631,7 +9763,7 @@
       <c r="D58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="75"/>
+      <c r="E58" s="77"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
@@ -9666,562 +9798,564 @@
     <row r="62" spans="2:5">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="64" spans="2:5" ht="31.5">
-      <c r="B64" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="60">
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+    </row>
+    <row r="63" spans="2:5" ht="18.75">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E63" s="73"/>
+    </row>
+    <row r="64" spans="2:5" ht="18" customHeight="1">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="E64" s="69" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="62.25" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="45">
+      <c r="D65" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E65" s="86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="60">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="2:5" ht="31.5">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="45">
+      <c r="D67" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
+    <row r="68" spans="2:5" ht="150">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="45">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="30">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="30">
+      <c r="D68" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="70" spans="2:5" ht="31.5">
+      <c r="B70" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="60">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="120">
+        <v>111</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="45">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="60">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="31.5">
-      <c r="B75" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="225">
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="45">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="45">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="30">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="30">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="90">
+        <v>123</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="120">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="60">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="60">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="90">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="30">
+        <v>126</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="31.5">
+      <c r="B81" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="225">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="30">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="60">
+        <v>130</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="90">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="90">
+        <v>129</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="45">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="60">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="90">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="21"/>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="D87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="30">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="21"/>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="30">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="21"/>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="D89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="60">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="D90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="90">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="D91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="60">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="21"/>
+      <c r="D92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="26"/>
+      <c r="E93" s="21"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="21"/>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" ht="60">
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="75">
+      <c r="D98" s="2"/>
+      <c r="E98" s="21"/>
+    </row>
+    <row r="99" spans="2:5">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="60">
+      <c r="D99" s="2"/>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="2:5">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="45">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>168</v>
-      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="75">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="135">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" ht="60">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="90">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="75">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="60">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="45">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="30">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="26" t="s">
-        <v>181</v>
+      <c r="D108" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="75">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="26"/>
-    </row>
-    <row r="110" spans="2:5">
+        <v>170</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="135">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
+      <c r="D110" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="90">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="26" t="s">
-        <v>186</v>
+      <c r="D111" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="45">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="26" t="s">
-        <v>188</v>
+      <c r="D112" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="26" t="s">
-        <v>190</v>
+      <c r="D113" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="30">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="26" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="31.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
       <c r="B115" s="2"/>
-      <c r="C115" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="2:5" ht="105">
+    <row r="116" spans="2:5">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E116" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="120">
+      <c r="D116" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
-        <v>196</v>
+      <c r="D117" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="255">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
-        <v>197</v>
+      <c r="D118" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" ht="180">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E119" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" ht="30">
+      <c r="D119" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E120" s="28"/>
-    </row>
-    <row r="121" spans="2:5" ht="30">
+      <c r="D120" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="31.5">
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E121" s="28"/>
-    </row>
-    <row r="122" spans="2:5" ht="30">
+      <c r="C121" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="26"/>
+    </row>
+    <row r="122" spans="2:5" ht="105">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E122" s="28"/>
-    </row>
-    <row r="123" spans="2:5" ht="45">
+      <c r="D122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="120">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E123" s="28"/>
-    </row>
-    <row r="124" spans="2:5">
+      <c r="D123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="255">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E124" s="28"/>
-    </row>
-    <row r="125" spans="2:5" ht="60">
+      <c r="D124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="180">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E125" s="28"/>
+      <c r="D125" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="126" spans="2:5" ht="30">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="28" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E126" s="28"/>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="2:5" ht="30">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E127" s="28"/>
     </row>
@@ -10229,104 +10363,116 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E128" s="28"/>
     </row>
-    <row r="129" spans="2:5" ht="30">
+    <row r="129" spans="2:5" ht="45">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E129" s="28"/>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="26"/>
-    </row>
-    <row r="132" spans="2:5" ht="31.5">
-      <c r="C132" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="90">
+      <c r="D130" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131" spans="2:5" ht="60">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132" spans="2:5" ht="30">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132" s="28"/>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" ht="90">
+      <c r="D133" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="28"/>
+    </row>
+    <row r="134" spans="2:5" ht="30">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="105">
+        <v>202</v>
+      </c>
+      <c r="E134" s="28"/>
+    </row>
+    <row r="135" spans="2:5" ht="30">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="90">
+      <c r="D135" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E135" s="28"/>
+    </row>
+    <row r="136" spans="2:5">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="21"/>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="21"/>
-    </row>
-    <row r="139" spans="2:5">
+      <c r="D136" s="28"/>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="138" spans="2:5" ht="31.5">
+      <c r="C138" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="90">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="21"/>
-    </row>
-    <row r="140" spans="2:5">
+      <c r="D139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="90">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="21"/>
-    </row>
-    <row r="141" spans="2:5">
+      <c r="D140" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="105">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="21"/>
-    </row>
-    <row r="142" spans="2:5">
+      <c r="D141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="90">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="21"/>
+      <c r="D142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="2"/>
@@ -10340,8 +10486,44 @@
       <c r="D144" s="2"/>
       <c r="E144" s="21"/>
     </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="27"/>
+    <row r="145" spans="2:5">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="21"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="21"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="21"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="21"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="21"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="21"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="E151" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10351,9 +10533,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D42:E42"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D63" r:id="rId1" display="http://www.java2blog.com/2014/02/hashcode-and-equals-method-in-java.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10362,7 +10547,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10381,62 +10566,62 @@
     </row>
     <row r="4" spans="2:3" ht="45">
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:3" ht="315">
       <c r="B7" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="105">
       <c r="B8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="60">
       <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="165">
       <c r="B10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>242</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="105">
       <c r="B11" s="2"/>
       <c r="C11" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -10455,76 +10640,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C86"/>
+  <dimension ref="A3:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="90.75">
       <c r="B3" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="23.25">
       <c r="B4" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:3" ht="45">
       <c r="B5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="135">
       <c r="B6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="315">
       <c r="B7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="60">
       <c r="B8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="31.5">
       <c r="B9" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="31.5">
       <c r="B10" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -10634,142 +10819,142 @@
     </row>
     <row r="37" spans="1:3" ht="90">
       <c r="B37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="37"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="55"/>
       <c r="B41" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="C42" s="53" t="s">
         <v>328</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="C43" s="53" t="s">
         <v>331</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="C44" s="53" t="s">
         <v>334</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="C45" s="53" t="s">
         <v>337</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>340</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="C47" s="53" t="s">
         <v>343</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="C48" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="C48" s="53" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="77" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="75" t="s">
+      <c r="B49" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="C49" s="77" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="77"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="77"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="77"/>
+      <c r="B51" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="75"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="75"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="75"/>
-      <c r="B51" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="75"/>
+      <c r="C51" s="77"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="C52" s="53" t="s">
         <v>353</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10777,38 +10962,38 @@
     </row>
     <row r="54" spans="1:3" ht="31.5">
       <c r="B54" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" s="81"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="B58" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="79"/>
-    </row>
-    <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="79" t="s">
+      <c r="C58" s="81"/>
+    </row>
+    <row r="59" spans="1:3" ht="19.5" customHeight="1">
+      <c r="B59" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="C58" s="79"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="79"/>
+      <c r="C59" s="81"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -10818,157 +11003,157 @@
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="30">
       <c r="B63" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" ht="225">
       <c r="B65" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="54" t="s">
         <v>364</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="30">
       <c r="B66" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" s="37"/>
     </row>
     <row r="67" spans="2:3" ht="30.75">
       <c r="B67" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="C67" s="54" t="s">
         <v>366</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="137.25" customHeight="1">
       <c r="B68" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="105.75">
       <c r="B69" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="54" t="s">
         <v>369</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="53.25" customHeight="1">
       <c r="B70" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="32.25" customHeight="1">
       <c r="B71" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="62" t="s">
         <v>373</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="135">
       <c r="B72" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" s="66" t="s">
         <v>376</v>
-      </c>
-      <c r="C72" s="66" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="30.75">
       <c r="B73" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C73" s="54" t="s">
         <v>378</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="67" t="s">
         <v>380</v>
-      </c>
-      <c r="C74" s="67" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="30">
       <c r="B75" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="54" t="s">
         <v>382</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="33.75" customHeight="1">
       <c r="B76" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="54" t="s">
         <v>384</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="30">
       <c r="B77" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="54" t="s">
         <v>386</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="30.75">
       <c r="B78" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="54" t="s">
         <v>388</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="30">
       <c r="B79" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C79" s="54" t="s">
         <v>390</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C80" s="54" t="s">
         <v>392</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="69" t="s">
         <v>400</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="270">
@@ -10976,10 +11161,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83" s="54" t="s">
         <v>394</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="240">
@@ -10987,10 +11172,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" s="54" t="s">
         <v>396</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="255">
@@ -10998,22 +11183,119 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="195">
       <c r="B86" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="42" t="s">
-        <v>293</v>
-      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" s="83"/>
+      <c r="C87" s="84"/>
+    </row>
+    <row r="88" spans="1:3" ht="51" customHeight="1">
+      <c r="B88" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="81"/>
+    </row>
+    <row r="89" spans="1:3" ht="31.5">
+      <c r="B89" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1">
+      <c r="A90" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="C90" s="81"/>
+    </row>
+    <row r="91" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A91" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
+      <c r="A92" s="85"/>
+      <c r="B92" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>415</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" s="73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C94" s="73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="2"/>
+      <c r="C95" s="73"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="2"/>
+      <c r="C96" s="73"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="2"/>
+      <c r="C97" s="73"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="2"/>
+      <c r="C98" s="73"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
@@ -11030,8 +11312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11051,195 +11333,195 @@
     </row>
     <row r="3" spans="2:3" ht="75">
       <c r="B3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>265</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="205.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="62.25" customHeight="1">
       <c r="B5" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>403</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="307.5" customHeight="1">
       <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>268</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="180">
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="105">
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="60">
       <c r="B17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>272</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="165">
       <c r="B18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>290</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="195">
       <c r="B19" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>292</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="165">
       <c r="B20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="409.5" customHeight="1">
       <c r="B21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="45">
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>299</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="225">
       <c r="B24" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>301</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="26.25">
       <c r="B25" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="2:3" ht="33" customHeight="1">
+      <c r="B26" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="80" t="s">
+      <c r="C26" s="82"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="C26" s="80"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="82"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -11249,19 +11531,19 @@
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1">
       <c r="B29" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1">
       <c r="B30" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1">
       <c r="B31" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -11271,98 +11553,98 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1">
       <c r="B33" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
       <c r="B34" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" thickBot="1">
       <c r="B35" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="37" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B37" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="51"/>
-    </row>
-    <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="80" t="s">
+      <c r="C37" s="82"/>
+    </row>
+    <row r="38" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B38" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="C37" s="80"/>
-    </row>
-    <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="82"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C39" s="49"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1">
       <c r="B40" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1">
       <c r="B42" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1">
       <c r="B43" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1">
       <c r="B44" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1">
       <c r="B45" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" thickBot="1">
       <c r="B46" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="36" customHeight="1">
+      <c r="B48" s="82" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="80" t="s">
+      <c r="C48" s="82"/>
+    </row>
+    <row r="49" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B49" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="C48" s="80"/>
-    </row>
-    <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" s="80"/>
+      <c r="C49" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="442">
   <si>
     <t>Java core</t>
   </si>
@@ -509,18 +509,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3) HashMap is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>new class introduced in JDK 1.2</t>
+      <t xml:space="preserve">4) HashMap is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fast</t>
     </r>
     <r>
       <rPr>
@@ -535,18 +535,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Hashtable is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>legacy class</t>
+      <t xml:space="preserve">Hashtable is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slow</t>
     </r>
     <r>
       <rPr>
@@ -560,19 +560,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4) HashMap is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fast</t>
+    <t>5) We can make the HashMap as synchronized by calling this code</t>
+  </si>
+  <si>
+    <t>Map m = Collections.synchronizedMap(hashMap);</t>
+  </si>
+  <si>
+    <t>Hashtable is internally synchronized and can't be unsynchronized.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6) HashMap is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traversed by Iterator</t>
     </r>
     <r>
       <rPr>
@@ -598,6 +607,171 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>traversed by Enumerator and Iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumerator in Hashtable is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not fail-fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8) HashMap inherits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AbstractMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hashtable inherits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class.</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between ArrayList and Vector?</t>
+  </si>
+  <si>
+    <t>ArrayList and Vector both implements List interface and maintains insertion order.</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) ArrayList is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vector is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vector is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>slow</t>
     </r>
     <r>
@@ -608,367 +782,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>5) We can make the HashMap as synchronized by calling this code</t>
-  </si>
-  <si>
-    <t>Map m = Collections.synchronizedMap(hashMap);</t>
-  </si>
-  <si>
-    <t>Hashtable is internally synchronized and can't be unsynchronized.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6) HashMap is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>traversed by Iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hashtable is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>traversed by Enumerator and Iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7) Iterator in HashMap is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fail-fast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enumerator in Hashtable is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not fail-fast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8) HashMap inherits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AbstractMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> class.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hashtable inherits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dictionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> class.</t>
-    </r>
-  </si>
-  <si>
-    <t>Difference between ArrayList and Vector?</t>
-  </si>
-  <si>
-    <t>ArrayList and Vector both implements List interface and maintains insertion order.</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) ArrayList is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not synchronized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vector is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>synchronized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3) ArrayList is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not a legacy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> class, it is introduced in JDK 1.2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vector is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>legacy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> class.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4) ArrayList is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> because it is non-synchronized.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vector is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> because it is synchronized i.e. in multithreading environment, it will hold the other threads in runnable or non-runnable state until current thread releases the lock of object.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5) ArrayList uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> interface to traverse the elements.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Vector uses </t>
     </r>
     <r>
@@ -991,52 +809,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> interface to traverse the elements. But it can use Iterator also.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2) ArrayList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>increments 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> current array size if number of element exceeds from its capacity.</t>
     </r>
   </si>
   <si>
@@ -2994,76 +2766,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> which does same thing but atomically and thus eliminates above race condition.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Additional feature called "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concurrency level</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>", which allows ConcurrentHashMap to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> partition Map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
- - This is achieved by partitioning Map into different parts based on concurrency level and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">locking only a partion of Map during updates
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iterator of ConcurrentHashMap's keySet area also fail-safe and doesn’t throw ConcurrentModificationExceptoin
- - Default concurrency level is 16 and can be changed, by providing a number which make sense and work for you while creating ConcurrentHashMap</t>
     </r>
   </si>
   <si>
@@ -7740,6 +7442,439 @@
     <t xml:space="preserve"> - This method is used to get unique integer for given object. 
  - This integer is used to find bucket when storing in hashmap or hashset.
  - By default, This method returns integer represention of memory address where object is stored.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) ArrayList is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because it is non-synchronized.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3) ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increments 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> current array size if number of element exceeds from its capacity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) ArrayList uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface to traverse the elements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7) Iterator in HashMap is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fail-fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Fail fast iterator while iterating through the collection , instantly throws </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concurrent Modification Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> there is structural modification  of the collection </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Additional feature called "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concurrency level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", which allows ConcurrentHashMap to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> portion Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+ - This is achieved by partitioning Map into different parts based on concurrency level and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">locking only a portion of Map during updates
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iterator of ConcurrentHashMap's keySet are also fail-safe and doesn’t throw ConcurrentModificationException
+ - Default concurrency level is 16 and can be changed, by providing a number which make sense and work for you while creating ConcurrentHashMap</t>
+    </r>
+  </si>
+  <si>
+    <t>How to analyze Deadlock in java?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tasklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command from a Command Prompt window. This displays all processes, their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIDs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and a variety of other details.
+2. “jstack PID &gt;&gt; mydumps.tdump“ to generate the thread dump</t>
+    </r>
+  </si>
+  <si>
+    <t>REST vs SOAP, the difference between soap and rest</t>
+  </si>
+  <si>
+    <t>SOAP (Simple Object Access Protocol)</t>
+  </si>
+  <si>
+    <t>REST (Representational State Transfer)</t>
+  </si>
+  <si>
+    <t>REST permits many different data formats such as:
+- Json, XML, RSS, CSV…</t>
+  </si>
+  <si>
+    <t>SOAP only permits XML</t>
+  </si>
+  <si>
+    <t>SOAP based reads cannot be cached.</t>
+  </si>
+  <si>
+    <t>REST reads can be cached ==&gt; Rest is faster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOAP has a standard specification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WSDL is a sort of formal contract to define the interface that the Web service offers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">REST </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">don't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hava a standard specification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The service producer and service consumer need to have a common understanding of the context as well as the content being passed along as there is no standard set of rules to describe the REST Web services interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>What's Race Condition?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Race conditions occur only if multiple threads are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accessing the same resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and one or more of the threads </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the resource. If multiple threads read the same resource race conditions do not occur.</t>
+    </r>
+  </si>
+  <si>
+    <t>What's thread safety?</t>
+  </si>
+  <si>
+    <t>Thread safety is a process to make our program safe to use in multithread environment. That means we make sure that the shared resources couldn’t be changed while being reading by multiple threads</t>
+  </si>
+  <si>
+    <t>How to make our program thread safe?</t>
+  </si>
+  <si>
+    <t>1. Making shared object immutable in order to make sure that it's never updated by any of threads.
+2. synchronization</t>
   </si>
 </sst>
 </file>
@@ -8135,7 +8270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8306,6 +8441,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8330,18 +8475,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8363,13 +8501,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8399,6 +8537,53 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3019425</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="30547" t="9959" r="6406" b="10366"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1400175" y="75980925"/>
+          <a:ext cx="7686675" cy="7467600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8969,7 +9154,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="10">
@@ -9206,10 +9391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E151"/>
+  <dimension ref="B2:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9222,7 +9407,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="31.5">
       <c r="B2" s="22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -9301,7 +9486,7 @@
     </row>
     <row r="10" spans="2:5" ht="31.5">
       <c r="B10" s="22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -9323,100 +9508,100 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="31" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="74.25" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="78.75">
       <c r="B20" s="2"/>
       <c r="C20" s="32"/>
       <c r="D20" s="33" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="93.75">
       <c r="B21" s="2"/>
       <c r="C21" s="32"/>
       <c r="D21" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -9427,7 +9612,7 @@
     </row>
     <row r="23" spans="2:5" ht="31.5">
       <c r="B23" s="22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -9460,10 +9645,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -9519,17 +9704,17 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="78"/>
+      <c r="D34" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="82"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -9538,540 +9723,544 @@
         <v>48</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="30">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="14" t="s">
-        <v>91</v>
+      <c r="D37" s="74" t="s">
+        <v>420</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="14" t="s">
-        <v>85</v>
+      <c r="D38" s="74" t="s">
+        <v>421</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="14" t="s">
-        <v>87</v>
+      <c r="D39" s="74" t="s">
+        <v>422</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="18.75">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="18.75">
+      <c r="D40" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="20"/>
+      <c r="D41" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="84"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="80"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="D42" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="45">
+      <c r="D43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="30">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="30">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" ht="18.75">
       <c r="B49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" ht="18.75">
-      <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="2"/>
+    <row r="50" spans="2:5">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="80"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="76"/>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="D51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30">
+      <c r="D52" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="E56" s="81"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" ht="60">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="77"/>
+      <c r="D58" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+    </row>
+    <row r="61" spans="2:5" ht="31.5">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="D61" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E61" s="73"/>
+    </row>
+    <row r="62" spans="2:5" ht="18" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-    </row>
-    <row r="63" spans="2:5" ht="18.75">
+      <c r="D62" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="62.25" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="E63" s="73"/>
-    </row>
-    <row r="64" spans="2:5" ht="18" customHeight="1">
+      <c r="D63" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="E64" s="69" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="62.25" customHeight="1">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="2:5" ht="31.5">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E65" s="86" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="D65" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="E65" s="73"/>
+    </row>
+    <row r="66" spans="2:5" ht="150">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="2:5" ht="31.5">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E67" s="73"/>
-    </row>
-    <row r="68" spans="2:5" ht="150">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="73" t="s">
-        <v>422</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="70" spans="2:5" ht="31.5">
-      <c r="B70" s="22" t="s">
-        <v>108</v>
+      <c r="D66" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="68" spans="2:5" ht="31.5">
+      <c r="B68" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="60">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="45">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="60">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>112</v>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="45">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="45">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="45">
+      <c r="D73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="30">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="30">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="30">
+      <c r="E75" s="72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="120">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="30">
+    </row>
+    <row r="77" spans="2:5" ht="60">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="120">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="31.5">
+      <c r="B79" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="60">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="31.5">
-      <c r="B81" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="225">
-      <c r="B82" s="2"/>
+    <row r="80" spans="2:5" ht="53.25" customHeight="1">
+      <c r="B80" s="32"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="53.25" customHeight="1">
+      <c r="B81" s="32"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="53.25" customHeight="1">
+      <c r="B82" s="32"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="30">
+        <v>440</v>
+      </c>
+      <c r="E82" s="74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="225">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="90">
+        <v>120</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="45">
+      <c r="D84" s="2"/>
+      <c r="E84" s="74"/>
+    </row>
+    <row r="85" spans="2:5" ht="30">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="60">
+        <v>122</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="90">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="90">
+        <v>121</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="45">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="60">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="90">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="60">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="30">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="30">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="60">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="90">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="21"/>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="D93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="60">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="21"/>
+      <c r="D94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
@@ -10101,19 +10290,19 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="26"/>
+      <c r="E99" s="21"/>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="21"/>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="2"/>
@@ -10127,267 +10316,263 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="2:5" ht="60">
+    <row r="104" spans="2:5">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="75">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>161</v>
-      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" ht="60">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="75">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="60">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="75">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="45">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="135">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="90">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="75">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="45">
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
+      <c r="C112" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="31.5">
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="30">
+      <c r="C113" s="22"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="74"/>
+    </row>
+    <row r="114" spans="2:5" ht="135">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="26" t="s">
-        <v>180</v>
+      <c r="D114" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="90">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" spans="2:5">
+        <v>166</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="45">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>184</v>
+      <c r="D116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="26" t="s">
-        <v>185</v>
+      <c r="D117" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="30">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>190</v>
-      </c>
+      <c r="D119" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="26"/>
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" ht="31.5">
+      <c r="D120" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
       <c r="B121" s="2"/>
-      <c r="C121" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="26"/>
-    </row>
-    <row r="122" spans="2:5" ht="105">
+      <c r="C121" s="2"/>
+      <c r="D121" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="120">
+      <c r="D122" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
-        <v>195</v>
+      <c r="D123" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="255">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2" t="s">
-        <v>196</v>
+      <c r="D124" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="180">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="31.5">
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" ht="30">
+      <c r="C125" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="26"/>
+    </row>
+    <row r="126" spans="2:5" ht="105">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E126" s="28"/>
-    </row>
-    <row r="127" spans="2:5" ht="30">
+      <c r="D126" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="120">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="2:5" ht="30">
+      <c r="D127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" s="74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="255">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E128" s="28"/>
-    </row>
-    <row r="129" spans="2:5" ht="45">
+      <c r="D128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="180">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="28"/>
-    </row>
-    <row r="130" spans="2:5">
+      <c r="D129" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="30">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="28" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E130" s="28"/>
     </row>
-    <row r="131" spans="2:5" ht="60">
+    <row r="131" spans="2:5" ht="30">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="28" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E131" s="28"/>
     </row>
@@ -10395,108 +10580,116 @@
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E132" s="28"/>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" ht="45">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="28" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E133" s="28"/>
     </row>
-    <row r="134" spans="2:5" ht="30">
+    <row r="134" spans="2:5">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E134" s="28"/>
     </row>
-    <row r="135" spans="2:5" ht="30">
+    <row r="135" spans="2:5" ht="60">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E135" s="28"/>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" ht="30">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="26"/>
-    </row>
-    <row r="138" spans="2:5" ht="31.5">
-      <c r="C138" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" ht="90">
+      <c r="D136" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E136" s="28"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" s="28"/>
+    </row>
+    <row r="138" spans="2:5" ht="30">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E138" s="28"/>
+    </row>
+    <row r="139" spans="2:5" ht="30">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" ht="90">
+      <c r="D139" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E139" s="28"/>
+    </row>
+    <row r="140" spans="2:5">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="105">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="90">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
+      <c r="D140" s="28"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="142" spans="2:5" ht="31.5">
+      <c r="C142" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="90">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="21"/>
-    </row>
-    <row r="144" spans="2:5">
+      <c r="D143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="90">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="21"/>
-    </row>
-    <row r="145" spans="2:5">
+      <c r="D144" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="105">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="21"/>
-    </row>
-    <row r="146" spans="2:5">
+      <c r="D145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" ht="90">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="21"/>
+      <c r="D146" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="2"/>
@@ -10523,22 +10716,43 @@
       <c r="E150" s="21"/>
     </row>
     <row r="151" spans="2:5">
-      <c r="E151" s="27"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="21"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="21"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="21"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="21"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="E155" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="E55:E56"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1" display="http://www.java2blog.com/2014/02/hashcode-and-equals-method-in-java.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10547,7 +10761,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10566,62 +10780,62 @@
     </row>
     <row r="4" spans="2:3" ht="45">
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:3" ht="315">
       <c r="B7" s="30" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="105">
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="60">
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="165">
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="105">
       <c r="B11" s="2"/>
       <c r="C11" s="30" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -10640,10 +10854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C101"/>
+  <dimension ref="A3:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10655,61 +10869,61 @@
   <sheetData>
     <row r="3" spans="2:3" ht="90.75">
       <c r="B3" s="35" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="23.25">
       <c r="B4" s="36" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:3" ht="45">
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="135">
       <c r="B6" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="315">
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="60">
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="31.5">
       <c r="B9" s="36" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="31.5">
       <c r="B10" s="32" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -10819,142 +11033,142 @@
     </row>
     <row r="37" spans="1:3" ht="90">
       <c r="B37" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C38" s="37"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="55"/>
       <c r="B41" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="53" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="53" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="53" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="53" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="53" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="53" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="53" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="77" t="s">
-        <v>347</v>
+      <c r="A49" s="81" t="s">
+        <v>338</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" s="77" t="s">
-        <v>350</v>
+        <v>339</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="77"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="53"/>
-      <c r="C50" s="77"/>
+      <c r="C50" s="81"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="77"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="C51" s="77"/>
+        <v>340</v>
+      </c>
+      <c r="C51" s="81"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10962,38 +11176,38 @@
     </row>
     <row r="54" spans="1:3" ht="31.5">
       <c r="B54" s="22" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C57" s="81"/>
+      <c r="B57" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="85"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="81"/>
+      <c r="B58" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="85"/>
     </row>
     <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="81"/>
+      <c r="B59" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="85"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -11003,157 +11217,157 @@
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="60" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="30">
       <c r="B63" s="61" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="60" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" ht="225">
       <c r="B65" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="30">
       <c r="B66" s="37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C66" s="37"/>
     </row>
     <row r="67" spans="2:3" ht="30.75">
       <c r="B67" s="63" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="137.25" customHeight="1">
       <c r="B68" s="64" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="105.75">
       <c r="B69" s="63" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="53.25" customHeight="1">
       <c r="B70" s="65" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="32.25" customHeight="1">
       <c r="B71" s="63" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="135">
       <c r="B72" s="63" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="30.75">
       <c r="B73" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C73" s="54" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="67" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="30">
       <c r="B75" s="67" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="33.75" customHeight="1">
       <c r="B76" s="67" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="30">
       <c r="B77" s="67" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="30.75">
       <c r="B78" s="67" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="30">
       <c r="B79" s="67" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="67" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="68" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="270">
@@ -11161,10 +11375,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="70" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="240">
@@ -11172,10 +11386,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="255">
@@ -11183,124 +11397,146 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="195">
       <c r="B86" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="B87" s="83"/>
-      <c r="C87" s="84"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="76"/>
     </row>
     <row r="88" spans="1:3" ht="51" customHeight="1">
-      <c r="B88" s="81" t="s">
-        <v>409</v>
-      </c>
-      <c r="C88" s="81"/>
+      <c r="B88" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" s="85"/>
     </row>
     <row r="89" spans="1:3" ht="31.5">
       <c r="B89" s="22" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30" customHeight="1">
       <c r="A90" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="C90" s="81"/>
+        <v>402</v>
+      </c>
+      <c r="B90" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="85"/>
     </row>
     <row r="91" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A91" s="85" t="s">
-        <v>414</v>
+      <c r="A91" s="86" t="s">
+        <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
+      <c r="A92" s="86"/>
+      <c r="B92" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C91" s="73" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="85"/>
-      <c r="B92" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="C92" s="73" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C93" s="73" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C94" s="73" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" s="2"/>
       <c r="C95" s="73"/>
     </row>
-    <row r="96" spans="1:3">
-      <c r="B96" s="2"/>
+    <row r="96" spans="1:3" ht="31.5">
+      <c r="B96" s="32" t="s">
+        <v>427</v>
+      </c>
       <c r="C96" s="73"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="73"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="2"/>
-      <c r="C98" s="73"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B97" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" s="69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="60">
+      <c r="B98" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="74" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="30">
+      <c r="B99" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="C49:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11333,195 +11569,195 @@
     </row>
     <row r="3" spans="2:3" ht="75">
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="205.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="62.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="307.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="180">
       <c r="B7" s="37" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="105">
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="37" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="37" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="37" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="37" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="37" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="37" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="60">
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="165">
       <c r="B18" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="195">
       <c r="B19" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="165">
       <c r="B20" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="409.5" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="45">
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="225">
       <c r="B24" s="43" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="26.25">
       <c r="B25" s="44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C25" s="37"/>
     </row>
     <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="82"/>
+      <c r="B26" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="87"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="82"/>
+      <c r="B27" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="87"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -11531,19 +11767,19 @@
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1">
       <c r="B29" s="47" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1">
       <c r="B30" s="46" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1">
       <c r="B31" s="47" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -11553,98 +11789,98 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1">
       <c r="B33" s="47" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
       <c r="B34" s="46" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" thickBot="1">
       <c r="B35" s="46" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="50" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C36" s="51"/>
     </row>
     <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37" s="82"/>
+      <c r="B37" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="87"/>
     </row>
     <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="82"/>
+      <c r="B38" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="87"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C39" s="49"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1">
       <c r="B40" s="46" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1">
       <c r="B42" s="46" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1">
       <c r="B43" s="46" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1">
       <c r="B44" s="46" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1">
       <c r="B45" s="46" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" thickBot="1">
       <c r="B46" s="46" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="50" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="C48" s="82"/>
+      <c r="B48" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="87"/>
     </row>
     <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="82"/>
+      <c r="B49" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="454">
   <si>
     <t>Java core</t>
   </si>
@@ -7876,12 +7876,308 @@
     <t>1. Making shared object immutable in order to make sure that it's never updated by any of threads.
 2. synchronization</t>
   </si>
+  <si>
+    <t xml:space="preserve">Benefits of making a class immutable?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - are simple to construct, test, and use
+  - are automatically thread-safe and have no synchronization issues
+  - do not need a copy constructor
+  - do not need an implementation of clone
+  - allow hashCode to use lazy initialization, and to cache its return value
+  - do not need to be copied defensively when used as a field
+  - make good Map keys and Set elements (these objects must not change state while in the collection)
+  - have their class invariant established once upon construction, and it never needs to be checked again
+  - always have “failure atomicity” (a term used by Joshua Bloch) : if an  immutable object throws an exception, it’s never left in an undesirable or indeterminate state</t>
+  </si>
+  <si>
+    <t>This principle says that for all mutable properties in your class, do not provide setter methods. Setter methods are meant to change the state of object and this is what we want to prevent here.</t>
+  </si>
+  <si>
+    <t>Guidelines to make a class immutable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don’t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“setter”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods — methods that modify fields or objects referred to by fields.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2) Make</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This is another way to increase immutability. Fields declared private will not be accessible outside the class and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> making them final will ensure the even accidentally you can not change them.</t>
+    </r>
+  </si>
+  <si>
+    <t>The simplest way to do this is to declare the class as final. Final classes in java can not be overridden.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don’t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subclasses to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>override methods</t>
+    </r>
+  </si>
+  <si>
+    <t>4) Special attention when having mutable instance variables</t>
+  </si>
+  <si>
+    <r>
+      <t>A more sophisticated approach is to make the constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and construct instances in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>factory methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Always remember that your instance variables will be either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mutable or immutable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Identify them and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return new objects with copied content for all mutable objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Immutable variables can be returned safely without extra effort.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8090,6 +8386,26 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -8270,7 +8586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8451,6 +8767,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8481,6 +8800,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8501,13 +8821,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8545,13 +8865,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8715,6 +9035,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8749,6 +9070,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8924,7 +9246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9390,11 +9712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9645,10 +9967,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -9711,10 +10033,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="82"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -9777,10 +10099,10 @@
     <row r="41" spans="2:5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="84"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
@@ -9867,10 +10189,10 @@
     <row r="50" spans="2:5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="80" t="s">
+      <c r="D50" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="80"/>
+      <c r="E50" s="81"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
@@ -9918,7 +10240,7 @@
       <c r="D55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="82" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9928,7 +10250,7 @@
       <c r="D56" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="2"/>
@@ -10146,481 +10468,491 @@
         <v>441</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="225">
-      <c r="B83" s="2"/>
+    <row r="83" spans="2:5" ht="205.5" customHeight="1">
+      <c r="B83" s="32"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="74"/>
-    </row>
-    <row r="85" spans="2:5" ht="30">
-      <c r="B85" s="2"/>
+      <c r="D83" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="35.25" customHeight="1">
+      <c r="B84" s="32"/>
+      <c r="C84" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" s="78"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B85" s="32"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="90">
-      <c r="B86" s="2"/>
+      <c r="D85" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B86" s="32"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="45">
-      <c r="B87" s="2"/>
+      <c r="D86" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="36" customHeight="1">
+      <c r="B87" s="32"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="60">
-      <c r="B88" s="2"/>
+      <c r="D87" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="67.5" customHeight="1">
+      <c r="B88" s="32"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="90">
-      <c r="B89" s="2"/>
+      <c r="D88" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="31.5">
+      <c r="B89" s="32"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="30">
+      <c r="D89" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="2:5" ht="225">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="60">
+      <c r="D91" s="2"/>
+      <c r="E91" s="74"/>
+    </row>
+    <row r="92" spans="2:5" ht="30">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="90">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="60">
+        <v>121</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="45">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="60">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="21"/>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="D95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="90">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="21"/>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="30">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="21"/>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="D97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="30">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="21"/>
-    </row>
-    <row r="99" spans="2:5">
+      <c r="D98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="60">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="21"/>
-    </row>
-    <row r="100" spans="2:5">
+      <c r="D99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="90">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" spans="2:5">
+      <c r="D100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="60">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="26"/>
+      <c r="D101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="21"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="21"/>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="21"/>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" ht="60">
+      <c r="E105" s="21"/>
+    </row>
+    <row r="106" spans="2:5">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="75">
+      <c r="D106" s="2"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="2:5">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="60">
+      <c r="D107" s="2"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="2:5">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="45">
+      <c r="D108" s="2"/>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" spans="2:5">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="75">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="45">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5">
       <c r="B112" s="2"/>
-      <c r="C112" s="32" t="s">
-        <v>425</v>
-      </c>
+      <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="31.5">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" ht="60">
       <c r="B113" s="2"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="74"/>
-    </row>
-    <row r="114" spans="2:5" ht="135">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="75">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="90">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="60">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="45">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="75">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="26" t="s">
-        <v>172</v>
+      <c r="D118" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="45">
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E119" s="26"/>
-    </row>
-    <row r="120" spans="2:5">
+      <c r="C119" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="31.5">
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
+      <c r="C120" s="22"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="74"/>
+    </row>
+    <row r="121" spans="2:5" ht="135">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="26" t="s">
-        <v>177</v>
+      <c r="D121" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="90">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="26" t="s">
-        <v>179</v>
+      <c r="D122" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="45">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="26" t="s">
-        <v>181</v>
+      <c r="D123" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="26" t="s">
-        <v>183</v>
+      <c r="D124" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="31.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="30">
       <c r="B125" s="2"/>
-      <c r="C125" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="26"/>
-    </row>
-    <row r="126" spans="2:5" ht="105">
+      <c r="C125" s="2"/>
+      <c r="D125" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E126" s="74" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" ht="120">
+        <v>174</v>
+      </c>
+      <c r="E126" s="26"/>
+    </row>
+    <row r="127" spans="2:5">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E127" s="74" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" ht="255">
+      <c r="D127" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
-        <v>188</v>
+      <c r="D128" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" ht="180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="30">
+      <c r="D129" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E130" s="28"/>
-    </row>
-    <row r="131" spans="2:5" ht="30">
+      <c r="D130" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E131" s="28"/>
-    </row>
-    <row r="132" spans="2:5" ht="30">
+      <c r="D131" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="31.5">
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E132" s="28"/>
-    </row>
-    <row r="133" spans="2:5" ht="45">
+      <c r="C132" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="26"/>
+    </row>
+    <row r="133" spans="2:5" ht="105">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E133" s="28"/>
-    </row>
-    <row r="134" spans="2:5">
+      <c r="D133" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E133" s="74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="120">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E134" s="28"/>
-    </row>
-    <row r="135" spans="2:5" ht="60">
+      <c r="D134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134" s="74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="255">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E135" s="28"/>
-    </row>
-    <row r="136" spans="2:5" ht="30">
+      <c r="D135" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="180">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E136" s="28"/>
-    </row>
-    <row r="137" spans="2:5">
+      <c r="D136" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="30">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E137" s="28"/>
     </row>
@@ -10628,7 +10960,7 @@
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E138" s="28"/>
     </row>
@@ -10636,102 +10968,116 @@
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E139" s="28"/>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" ht="45">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="142" spans="2:5" ht="31.5">
-      <c r="C142" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" ht="90">
+      <c r="D140" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E140" s="28"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="28"/>
+    </row>
+    <row r="142" spans="2:5" ht="60">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" s="28"/>
+    </row>
+    <row r="143" spans="2:5" ht="30">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" ht="90">
+      <c r="D143" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="28"/>
+    </row>
+    <row r="144" spans="2:5">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" ht="105">
+        <v>202</v>
+      </c>
+      <c r="E144" s="28"/>
+    </row>
+    <row r="145" spans="2:5" ht="30">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" ht="90">
+      <c r="D145" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" s="28"/>
+    </row>
+    <row r="146" spans="2:5" ht="30">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>149</v>
-      </c>
+      <c r="D146" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E146" s="28"/>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="21"/>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="21"/>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="21"/>
-    </row>
-    <row r="150" spans="2:5">
+      <c r="D147" s="28"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="149" spans="2:5" ht="31.5">
+      <c r="C149" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="90">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="21"/>
-    </row>
-    <row r="151" spans="2:5">
+      <c r="D150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="90">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="21"/>
-    </row>
-    <row r="152" spans="2:5">
+      <c r="D151" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="105">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="21"/>
-    </row>
-    <row r="153" spans="2:5">
+      <c r="D152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="90">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="21"/>
+      <c r="D153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="2"/>
@@ -10740,7 +11086,49 @@
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="2:5">
-      <c r="E155" s="27"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="21"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="21"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="21"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="21"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="21"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="21"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="21"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="E162" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10757,7 +11145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -10853,7 +11241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -11138,27 +11526,27 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="82" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="82" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="81"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="53"/>
-      <c r="C50" s="81"/>
+      <c r="C50" s="82"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="81"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="81"/>
+      <c r="C51" s="82"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
@@ -11188,22 +11576,22 @@
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="85"/>
+      <c r="C57" s="86"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="85"/>
+      <c r="C58" s="86"/>
     </row>
     <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="C59" s="85"/>
+      <c r="C59" s="86"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
@@ -11247,7 +11635,7 @@
       </c>
       <c r="C66" s="37"/>
     </row>
-    <row r="67" spans="2:3" ht="30.75">
+    <row r="67" spans="2:3" ht="30">
       <c r="B67" s="63" t="s">
         <v>356</v>
       </c>
@@ -11263,7 +11651,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="105.75">
+    <row r="69" spans="2:3" ht="105">
       <c r="B69" s="63" t="s">
         <v>359</v>
       </c>
@@ -11295,7 +11683,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="30.75">
+    <row r="73" spans="2:3" ht="30">
       <c r="B73" s="63" t="s">
         <v>368</v>
       </c>
@@ -11335,7 +11723,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="30.75">
+    <row r="78" spans="2:3" ht="30">
       <c r="B78" s="67" t="s">
         <v>378</v>
       </c>
@@ -11416,10 +11804,10 @@
       <c r="C87" s="76"/>
     </row>
     <row r="88" spans="1:3" ht="51" customHeight="1">
-      <c r="B88" s="85" t="s">
+      <c r="B88" s="86" t="s">
         <v>400</v>
       </c>
-      <c r="C88" s="85"/>
+      <c r="C88" s="86"/>
     </row>
     <row r="89" spans="1:3" ht="31.5">
       <c r="B89" s="22" t="s">
@@ -11430,13 +11818,13 @@
       <c r="A90" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="85" t="s">
+      <c r="B90" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="85"/>
+      <c r="C90" s="86"/>
     </row>
     <row r="91" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="87" t="s">
         <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -11447,7 +11835,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="86"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="2" t="s">
         <v>408</v>
       </c>
@@ -11545,7 +11933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -11748,16 +12136,16 @@
       <c r="C25" s="37"/>
     </row>
     <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="88"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="87"/>
+      <c r="C27" s="88"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -11812,16 +12200,16 @@
       <c r="C36" s="51"/>
     </row>
     <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="87"/>
+      <c r="C37" s="88"/>
     </row>
     <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="87"/>
+      <c r="C38" s="88"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
@@ -11871,16 +12259,16 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="87"/>
+      <c r="C48" s="88"/>
     </row>
     <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="88" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="87"/>
+      <c r="C49" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="455">
   <si>
     <t>Java core</t>
   </si>
@@ -8003,22 +8003,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>This is another way to increase immutability. Fields declared private will not be accessible outside the class and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> making them final will ensure the even accidentally you can not change them.</t>
-    </r>
-  </si>
-  <si>
     <t>The simplest way to do this is to declare the class as final. Final classes in java can not be overridden.</t>
   </si>
   <si>
@@ -8126,8 +8110,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Always remember that your instance variables will be either </t>
+    <t>making the constructor private and providing createInstance() (factory method) does not help by itself: it is one of few things you should do in order to allow users to actually use the class and its instances while you still have the control of the way instances are created</t>
+  </si>
+  <si>
+    <r>
+      <t>This is another way to increase immutability. Fields declared private will not be accessible outside the class and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> making them final will ensure the even accidentally you can not change them. 
+Make them final to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avoid changing state by using reflection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Always remember that your instance variables will be either </t>
     </r>
     <r>
       <rPr>
@@ -8148,7 +8163,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. Identify them and </t>
+      <t xml:space="preserve">. 
+ - Identify them and </t>
     </r>
     <r>
       <rPr>
@@ -8159,24 +8175,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>return new objects with copied content for all mutable objects.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Immutable variables can be returned safely without extra effort.</t>
+      <t xml:space="preserve">return new objects with copied content for all mutable objects (deep-copy) 
+ - A defensive copy of the mutable object must be made any time it's passed into (constructors and set methods) or out of (get methods) the class.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Immutable variables can be returned safely without extra effort.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="32">
     <font>
       <sz val="11"/>
@@ -8586,7 +8604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8770,6 +8788,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8800,7 +8822,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8821,13 +8842,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8865,13 +8886,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9035,7 +9056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9070,7 +9090,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9246,7 +9265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9712,11 +9731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9967,10 +9986,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="82"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -10033,10 +10052,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="85"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -10099,10 +10118,10 @@
     <row r="41" spans="2:5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
@@ -10189,10 +10208,10 @@
     <row r="50" spans="2:5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="81"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
@@ -10240,7 +10259,7 @@
       <c r="D55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="82" t="s">
+      <c r="E55" s="84" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10250,7 +10269,7 @@
       <c r="D56" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="82"/>
+      <c r="E56" s="84"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="2"/>
@@ -10503,158 +10522,160 @@
         <v>447</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="36" customHeight="1">
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
       <c r="D87" s="78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="67.5" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="120.75" customHeight="1">
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
       <c r="D88" s="78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="31.5">
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="89" t="s">
+      <c r="D89" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="2:5" ht="66" customHeight="1">
+      <c r="B90" s="32"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="2:5" ht="225">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="2:5" ht="225">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="74"/>
-    </row>
-    <row r="92" spans="2:5" ht="30">
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="90">
+      <c r="D92" s="2"/>
+      <c r="E92" s="74"/>
+    </row>
+    <row r="93" spans="2:5" ht="30">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="90">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" ht="60">
+        <v>121</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="45">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="90">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="60">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="90">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="30">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="60">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="30">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="60">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="60">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="90">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="60">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="21"/>
+      <c r="D102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="2"/>
@@ -10690,13 +10711,13 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="26"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="26"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="2"/>
@@ -10716,251 +10737,249 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="2:5" ht="60">
+    <row r="113" spans="2:5">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="75">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="60">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="60">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="75">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" ht="45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="60">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="45">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="75">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E119" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="45">
-      <c r="B119" s="2"/>
-      <c r="C119" s="32" t="s">
+    <row r="120" spans="2:5" ht="45">
+      <c r="B120" s="2"/>
+      <c r="C120" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="40" t="s">
+      <c r="D120" s="2"/>
+      <c r="E120" s="40" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="31.5">
-      <c r="B120" s="2"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="74"/>
-    </row>
-    <row r="121" spans="2:5" ht="135">
+    <row r="121" spans="2:5" ht="31.5">
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="90">
+      <c r="C121" s="22"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="74"/>
+    </row>
+    <row r="122" spans="2:5" ht="135">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="90">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="45">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="30">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="26" t="s">
-        <v>172</v>
+      <c r="D125" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="30">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E126" s="26"/>
+      <c r="D126" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="D127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" s="26"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>178</v>
+      <c r="D128" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E132" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="31.5">
-      <c r="B132" s="2"/>
-      <c r="C132" s="22" t="s">
+    <row r="133" spans="2:5" ht="31.5">
+      <c r="B133" s="2"/>
+      <c r="C133" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="26"/>
-    </row>
-    <row r="133" spans="2:5" ht="105">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E133" s="74" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" ht="120">
+      <c r="D133" s="2"/>
+      <c r="E133" s="26"/>
+    </row>
+    <row r="134" spans="2:5" ht="105">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E134" s="74" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="255">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="120">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="180">
+        <v>187</v>
+      </c>
+      <c r="E135" s="74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="255">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" ht="30">
+        <v>188</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="180">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E137" s="28"/>
+      <c r="D137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="138" spans="2:5" ht="30">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E138" s="28"/>
     </row>
@@ -10968,55 +10987,55 @@
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E139" s="28"/>
     </row>
-    <row r="140" spans="2:5" ht="45">
+    <row r="140" spans="2:5" ht="30">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="28" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E140" s="28"/>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:5" ht="45">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="28" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E141" s="28"/>
     </row>
-    <row r="142" spans="2:5" ht="60">
+    <row r="142" spans="2:5">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E142" s="28"/>
     </row>
-    <row r="143" spans="2:5" ht="30">
+    <row r="143" spans="2:5" ht="60">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E143" s="28"/>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" ht="30">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E144" s="28"/>
     </row>
-    <row r="145" spans="2:5" ht="30">
+    <row r="145" spans="2:5">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E145" s="28"/>
     </row>
@@ -11024,66 +11043,68 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E146" s="28"/>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" ht="30">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="149" spans="2:5" ht="31.5">
-      <c r="C149" s="22" t="s">
+      <c r="D147" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E147" s="28"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="150" spans="2:5" ht="31.5">
+      <c r="C150" s="22" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" ht="90">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="90">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="28" t="s">
-        <v>146</v>
+      <c r="D151" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="105">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="90">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2" t="s">
-        <v>155</v>
+      <c r="D152" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="90">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="105">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" ht="90">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="21"/>
+      <c r="D154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="2"/>
@@ -11128,7 +11149,13 @@
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="E162" s="27"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="21"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="E163" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11145,7 +11172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -11241,7 +11268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -11526,27 +11553,27 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="84" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="84" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="82"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="53"/>
-      <c r="C50" s="82"/>
+      <c r="C50" s="84"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="82"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="82"/>
+      <c r="C51" s="84"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
@@ -11576,22 +11603,22 @@
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="88" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="86"/>
+      <c r="C57" s="88"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="86"/>
+      <c r="C58" s="88"/>
     </row>
     <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="C59" s="86"/>
+      <c r="C59" s="88"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
@@ -11635,7 +11662,7 @@
       </c>
       <c r="C66" s="37"/>
     </row>
-    <row r="67" spans="2:3" ht="30">
+    <row r="67" spans="2:3" ht="30.75">
       <c r="B67" s="63" t="s">
         <v>356</v>
       </c>
@@ -11651,7 +11678,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="105">
+    <row r="69" spans="2:3" ht="105.75">
       <c r="B69" s="63" t="s">
         <v>359</v>
       </c>
@@ -11683,7 +11710,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="30">
+    <row r="73" spans="2:3" ht="30.75">
       <c r="B73" s="63" t="s">
         <v>368</v>
       </c>
@@ -11723,7 +11750,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="30">
+    <row r="78" spans="2:3" ht="30.75">
       <c r="B78" s="67" t="s">
         <v>378</v>
       </c>
@@ -11804,10 +11831,10 @@
       <c r="C87" s="76"/>
     </row>
     <row r="88" spans="1:3" ht="51" customHeight="1">
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="C88" s="86"/>
+      <c r="C88" s="88"/>
     </row>
     <row r="89" spans="1:3" ht="31.5">
       <c r="B89" s="22" t="s">
@@ -11818,13 +11845,13 @@
       <c r="A90" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="86"/>
+      <c r="C90" s="88"/>
     </row>
     <row r="91" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="89" t="s">
         <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -11835,7 +11862,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="87"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="2" t="s">
         <v>408</v>
       </c>
@@ -11933,7 +11960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -12136,16 +12163,16 @@
       <c r="C25" s="37"/>
     </row>
     <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="90"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="90"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -12200,16 +12227,16 @@
       <c r="C36" s="51"/>
     </row>
     <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="90"/>
     </row>
     <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="90"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
@@ -12259,16 +12286,16 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="90"/>
     </row>
     <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="88"/>
+      <c r="C49" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -8194,7 +8194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="32">
     <font>
       <sz val="11"/>
@@ -9056,6 +9056,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9090,6 +9091,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9265,7 +9267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9731,11 +9733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10362,7 +10364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="60">
+    <row r="69" spans="2:5" ht="49.5" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
@@ -10773,7 +10775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="45">
+    <row r="117" spans="2:5" ht="32.25" customHeight="1">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
@@ -11172,7 +11174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -11268,11 +11270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11662,7 +11664,7 @@
       </c>
       <c r="C66" s="37"/>
     </row>
-    <row r="67" spans="2:3" ht="30.75">
+    <row r="67" spans="2:3" ht="30">
       <c r="B67" s="63" t="s">
         <v>356</v>
       </c>
@@ -11678,7 +11680,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="105.75">
+    <row r="69" spans="2:3" ht="105">
       <c r="B69" s="63" t="s">
         <v>359</v>
       </c>
@@ -11710,7 +11712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="30.75">
+    <row r="73" spans="2:3" ht="30">
       <c r="B73" s="63" t="s">
         <v>368</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="30.75">
+    <row r="78" spans="2:3" ht="30">
       <c r="B78" s="67" t="s">
         <v>378</v>
       </c>
@@ -11960,11 +11962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Training_Plan.xlsx
+++ b/Training_Plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="SOAP WS" sheetId="3" r:id="rId3"/>
     <sheet name="RESTful WS" sheetId="4" r:id="rId4"/>
     <sheet name="Spring framework" sheetId="5" r:id="rId5"/>
+    <sheet name="MongoDBJasper" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="463">
   <si>
     <t>Java core</t>
   </si>
@@ -8190,12 +8191,154 @@
       <t>Immutable variables can be returned safely without extra effort.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To do this first we need to place the jasperPrint object in the http session using the following code.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request.getSession().setAttribute(ImageServlet.DEFAULT_JASPER_PRINT_SESSION_ATTRIBUTE, jasperPrint);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After placing the jasperPrint object in the session, we need to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set the image handler for images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the report using the code,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exporterOutput.setImageHandler(new WebHtmlResourceHandler("image?image={0}"));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The images are served by ImageServlet which should be mapped to ‘/image’ in the web.xml. Here is the configuration that should be added to web.xml file.
+ &lt;servlet&gt;
+    &lt;servlet-name&gt;ImageServlet&lt;/servlet-name&gt;
+    &lt;servlet-class&gt;net.sf.jasperreports.j2ee.servlets.ImageServlet&lt;/servlet-class&gt; &lt;/servlet&gt;
+ &lt;servlet-mapping&gt;
+     &lt;servlet-name&gt;ImageServlet&lt;/servlet-name&gt;
+     &lt;url-pattern&gt;/image&lt;/url-pattern&gt;
+ &lt;/servlet-mapping&gt;
+The JasperCompileManager.compileReport(jrxmlSource) method compiles and generates a jasperReport object which is used to generate jasperPrint object using the JasperFillManager.fillReport(jasperReport, parameters, dataSource) method. In the following example the dataSource is populated using a string which is in json format. I am exporting the generated documents to the response. So, accordingly I have set content-type, content-disposition headers appropriately, which I have not shown in the code. The headers are set for all formats except for the type html as htmls are to be displayed in the browser along with images.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        private static final Logger logger = LoggerFactory.getLogger(YOURCLASS.class);
+ JRDataSource dataSource = getDataSource(jsonData);//pass jsonData to populate the dataSource
+ JasperReport jasperReport = null;
+ JasperPrint jasperPrint = null;
+ //String type = Any of the types mentioned above
+ //jrxmlSource is the the jrxml generated using the iReport
+ Map&lt;String, Object&gt; parameters = new HashMap&lt;String, Object&gt;();
+ //Add any parameters that are referenced in the jrxml to this map
+ try {
+  jasperReport = JasperCompileManager.compileReport(jRXMLSource);
+  jasperPrint = JasperFillManager.fillReport(jasperReport, parameters, dataSource);
+ } catch (JRException ex) {
+  ex.printStackTrace();
+ }
+</t>
+  </si>
+  <si>
+    <t>request.getSession().setAttribute(ImageServlet.DEFAULT_JASPER_PRINT_SESSION_ATTRIBUTE,jasperPrint);
+  HtmlExporter exporterHTML = new HtmlExporter();
+  SimpleExporterInput exporterInput = new SimpleExporterInput(jasperPrint);
+  exporterHTML.setExporterInput(exporterInput);
+  SimpleHtmlExporterOutput exporterOutput;
+  try {
+   exporterOutput = new SimpleHtmlExporterOutput(response.getOutputStream());
+   exporterOutput.setImageHandler(new WebHtmlResourceHandler("image?image={0}"));
+   exporterHTML.setExporterOutput(exporterOutput);
+          SimpleHtmlReportConfiguration reportExportConfiguration = new SimpleHtmlReportConfiguration();
+   reportExportConfiguration.setWhitePageBackground(false);
+   reportExportConfiguration.setRemoveEmptySpaceBetweenRows(true);
+   exporterHTML.setConfiguration(reportExportConfiguration);
+   exporterHTML.exportReport();
+  } catch (IOException e) {
+   logger.error("IOException occured", e);
+   e.printStackTrace();
+  } catch (JRException e) {
+   logger.error("JRException while exporting for html format", e);
+   e.printStackTrace();}
+ }</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Resolves</t>
+  </si>
+  <si>
+    <t>Exporting the jasperPrint object which consists of images into html format</t>
+  </si>
+  <si>
+    <t>[#5794] - "No MongoDB connection" when trying to use mongodb connection with subreports/subdatasets on Jasper Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   conn = new MongoDbConnection(mongoURI, null, null);
+   Map&lt;String, Object&gt; parameters = new HashMap&lt;String, Object&gt;();
+   //parameters.put(MongoDbDataSource.CONNECTION, conn);
+   JasperReport jasperReport = JasperCompileManager.compileReport("D:\\TrainingCodes\\reportsTemplate\\Table_Report.jrxml");
+   JasperPrint fillReport = JasperFillManager.fillReport(jasperReport, parameters, conn);
+   //JasperExportManager.exportReportToHtmlFile("D:\\TrainingCodes\\reportsTemplate\\MongoDbReport.html");
+   JasperExportManager.exportReportToPdfFile(fillReport,"D:\\TrainingCodes\\reportsTemplate\\Table_Report.pdf");
+   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8424,6 +8567,12 @@
       <color rgb="FF222222"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -8451,7 +8600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -8600,11 +8749,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8792,6 +8952,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8821,6 +8987,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9056,7 +9234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9091,7 +9268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9267,7 +9443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9733,10 +9909,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -9988,10 +10164,10 @@
     <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="82"/>
+      <c r="E27" s="84"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2"/>
@@ -10054,10 +10230,10 @@
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="87"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
@@ -10120,10 +10296,10 @@
     <row r="41" spans="2:5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="87"/>
+      <c r="E41" s="89"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
@@ -10210,10 +10386,10 @@
     <row r="50" spans="2:5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="83"/>
+      <c r="E50" s="85"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2"/>
@@ -10261,7 +10437,7 @@
       <c r="D55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="86" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10271,7 +10447,7 @@
       <c r="D56" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="84"/>
+      <c r="E56" s="86"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="2"/>
@@ -11174,7 +11350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -11270,7 +11446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
@@ -11555,27 +11731,27 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="86" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="86" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="84"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="53"/>
-      <c r="C50" s="84"/>
+      <c r="C50" s="86"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="84"/>
+      <c r="C51" s="86"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
@@ -11605,22 +11781,22 @@
       <c r="B56" s="58"/>
     </row>
     <row r="57" spans="1:3" ht="32.25" customHeight="1">
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="88"/>
+      <c r="C57" s="90"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="88"/>
+      <c r="C58" s="90"/>
     </row>
     <row r="59" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="C59" s="88"/>
+      <c r="C59" s="90"/>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="2" t="s">
@@ -11664,7 +11840,7 @@
       </c>
       <c r="C66" s="37"/>
     </row>
-    <row r="67" spans="2:3" ht="30">
+    <row r="67" spans="2:3" ht="30.75">
       <c r="B67" s="63" t="s">
         <v>356</v>
       </c>
@@ -11680,7 +11856,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="105">
+    <row r="69" spans="2:3" ht="105.75">
       <c r="B69" s="63" t="s">
         <v>359</v>
       </c>
@@ -11712,7 +11888,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="30">
+    <row r="73" spans="2:3" ht="30.75">
       <c r="B73" s="63" t="s">
         <v>368</v>
       </c>
@@ -11752,7 +11928,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="30">
+    <row r="78" spans="2:3" ht="30.75">
       <c r="B78" s="67" t="s">
         <v>378</v>
       </c>
@@ -11833,10 +12009,10 @@
       <c r="C87" s="76"/>
     </row>
     <row r="88" spans="1:3" ht="51" customHeight="1">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="90" t="s">
         <v>400</v>
       </c>
-      <c r="C88" s="88"/>
+      <c r="C88" s="90"/>
     </row>
     <row r="89" spans="1:3" ht="31.5">
       <c r="B89" s="22" t="s">
@@ -11847,13 +12023,13 @@
       <c r="A90" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="88"/>
+      <c r="C90" s="90"/>
     </row>
     <row r="91" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="91" t="s">
         <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -11864,7 +12040,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="89"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="2" t="s">
         <v>408</v>
       </c>
@@ -11962,7 +12138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -12165,16 +12341,16 @@
       <c r="C25" s="37"/>
     </row>
     <row r="26" spans="2:3" ht="33" customHeight="1">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="90"/>
+      <c r="C26" s="92"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="92"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1">
       <c r="B28" s="48" t="s">
@@ -12229,16 +12405,16 @@
       <c r="C36" s="51"/>
     </row>
     <row r="37" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="92"/>
     </row>
     <row r="38" spans="2:3" ht="32.25" customHeight="1">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="92"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="B39" s="52" t="s">
@@ -12288,16 +12464,16 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="36" customHeight="1">
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="90"/>
+      <c r="C48" s="92"/>
     </row>
     <row r="49" spans="2:3" ht="49.5" customHeight="1">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="90"/>
+      <c r="C49" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12311,4 +12487,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="138.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="285">
+      <c r="B3" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="255">
+      <c r="B4" s="95"/>
+      <c r="C4" s="81" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="360">
+      <c r="B5" s="96"/>
+      <c r="C5" s="81" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="168">
+      <c r="B6" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>